--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -986,6 +986,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -998,15 +1007,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1016,7 +1016,14 @@
     <cellStyle name="常规 3 2" xfId="2"/>
     <cellStyle name="常规 3 2 2" xfId="4"/>
   </cellStyles>
-  <dxfs count="274">
+  <dxfs count="271">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1076,6 +1083,43 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -1083,6 +1127,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1134,13 +1192,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1187,88 +1238,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3718,36 +3688,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="30.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -4087,7 +4057,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="273" priority="1184" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="1184" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1185">
@@ -4104,16 +4074,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="272" priority="1186" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="1186" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="1187" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="1187" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="1188" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="1188" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="1189" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="1189" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1190">
@@ -4172,16 +4142,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="268" priority="1423" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="1423" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="1424" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="1424" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="1425" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="1425" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="1426" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="1426" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1427">
@@ -4226,16 +4196,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="264" priority="1454" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="1454" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="1455" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="1455" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="1456" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="1456" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="1457" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="1457" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1458">
@@ -4280,7 +4250,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="260" priority="826" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="826" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="827">
@@ -4297,16 +4267,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="259" priority="828" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="828" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="829" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="829" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="830" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="831" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="831" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="832">
@@ -4351,12 +4321,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="255" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="232" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="254" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="233" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="234">
@@ -4373,16 +4343,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="253" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="235" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="236" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="237" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="238" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="239">
@@ -4427,12 +4397,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="249" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="231" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="248" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="244" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="245">
@@ -4449,16 +4419,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="247" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="246" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="247" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="248" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="249" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="250">
@@ -4503,12 +4473,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="243" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="144" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="242" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="146">
@@ -4525,16 +4495,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="241" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="147" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="148" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="149" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="150" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="151">
@@ -4579,12 +4549,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="237" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="236" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -4601,16 +4571,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="235" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -4655,12 +4625,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="231" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="230" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -4677,16 +4647,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="229" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -4731,12 +4701,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="225" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="224" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -4753,16 +4723,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="223" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -4807,12 +4777,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="219" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="218" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -4829,16 +4799,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="217" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -4883,12 +4853,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="213" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="212" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -4905,16 +4875,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="211" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -4959,12 +4929,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="207" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="206" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -4981,16 +4951,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="205" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5227,36 +5197,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="30.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -5590,7 +5560,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="200" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -5607,16 +5577,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="199" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -5675,16 +5645,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="195" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -5729,16 +5699,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="191" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -5783,7 +5753,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="187" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -5800,16 +5770,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="186" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -5854,12 +5824,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="182" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="181" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -5876,16 +5846,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="180" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -5930,12 +5900,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="176" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="175" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="111">
@@ -5952,16 +5922,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="174" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="112" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="113" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="114" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="115" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -6006,12 +5976,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="170" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="169" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -6028,16 +5998,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="168" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -6082,12 +6052,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="164" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="163" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -6104,16 +6074,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="162" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -6158,12 +6128,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="158" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="157" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -6180,16 +6150,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="156" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -6234,12 +6204,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="152" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="151" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -6256,16 +6226,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="150" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -6310,12 +6280,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="146" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="145" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">
@@ -6332,16 +6302,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="144" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="28" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="29" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="30" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="31" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -6386,12 +6356,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="140" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="139" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -6408,16 +6378,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="138" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6462,12 +6432,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="134" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="133" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -6484,16 +6454,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="132" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6730,36 +6700,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="30.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -7023,7 +6993,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="127" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -7040,16 +7010,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="126" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -7108,16 +7078,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="122" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -7162,16 +7132,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="118" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -7216,7 +7186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="114" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -7233,16 +7203,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="113" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -7287,12 +7257,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="109" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="108" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -7309,16 +7279,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="107" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -7363,12 +7333,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="103" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="102" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -7385,16 +7355,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="101" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -7439,12 +7409,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="97" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="96" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -7461,16 +7431,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="95" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -7515,21 +7485,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="91" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="90" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="163" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="163" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="163" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="163" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="163">
@@ -7574,7 +7544,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="86" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -7591,16 +7561,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="85" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -7645,12 +7615,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="81" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="80" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -7667,16 +7637,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="79" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -7721,17 +7691,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="75" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="73" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -7748,16 +7718,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -7802,7 +7772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="68" priority="1463" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1463" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1464">
@@ -7965,10 +7935,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7988,34 +7958,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="30.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -8030,7 +8000,7 @@
       <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="33" t="s">
@@ -8065,7 +8035,7 @@
       <c r="D4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="56" t="s">
         <v>105</v>
       </c>
       <c r="F4" s="47" t="s">
@@ -8096,7 +8066,7 @@
       <c r="D5" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="54" t="s">
         <v>99</v>
       </c>
       <c r="F5" s="47"/>
@@ -8123,7 +8093,7 @@
       <c r="D6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="54" t="s">
         <v>104</v>
       </c>
       <c r="F6" s="47" t="s">
@@ -8243,7 +8213,7 @@
       <c r="D10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="54" t="s">
         <v>101</v>
       </c>
       <c r="F10" s="16" t="s">
@@ -8292,34 +8262,47 @@
       <c r="J11" s="22"/>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="46">
-        <v>43240</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>86</v>
-      </c>
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="22"/>
-      <c r="H12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="49" t="s">
-        <v>92</v>
-      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="49"/>
       <c r="J12" s="22"/>
       <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="46">
+        <v>43240</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="I3:I11"/>
@@ -8328,8 +8311,8 @@
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H13:H1048576">
-    <cfRule type="cellIs" dxfId="66" priority="98" operator="equal">
+  <conditionalFormatting sqref="H14:H1048576">
+    <cfRule type="cellIs" dxfId="63" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="99">
@@ -8345,17 +8328,17 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H1048576">
-    <cfRule type="cellIs" dxfId="65" priority="100" operator="equal">
+  <conditionalFormatting sqref="H14:H1048576">
+    <cfRule type="cellIs" dxfId="62" priority="100" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="101" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="102" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="103" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="104">
@@ -8414,16 +8397,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="61" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="110" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="111" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="112" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="113" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="114">
@@ -8468,16 +8451,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="57" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="119" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="120" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="121" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="122" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="123">
@@ -8522,7 +8505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="53" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -8539,16 +8522,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="52" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -8593,12 +8576,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="48" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="47" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="76">
@@ -8615,16 +8598,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="46" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="77" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="78" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="79" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="80" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="81">
@@ -8669,12 +8652,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="42" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="41" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -8691,16 +8674,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="40" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -8745,12 +8728,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="36" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="35" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="52">
@@ -8767,16 +8750,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="34" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="53" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="54" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="56" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="57">
@@ -8821,60 +8804,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="29" priority="-1" operator="equal">
-      <formula>"ongoing"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="-1" operator="equal">
-      <formula>"close"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="-1" operator="equal">
-      <formula>"delay"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="-1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="-1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="-1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="-1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="-1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="128" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
@@ -8950,12 +8884,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H11:H12">
     <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H11:H12">
     <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -8972,7 +8906,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H11:H12">
     <cfRule type="cellIs" dxfId="18" priority="29" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
@@ -9124,13 +9058,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -9146,17 +9080,17 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -9201,13 +9135,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H13">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B13">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9225,7 +9159,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H13:H1048576</xm:sqref>
+          <xm:sqref>H14:H1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4B6D4E27-1CF7-47DA-9B80-F680219B10C6}">
@@ -9302,7 +9236,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H11</xm:sqref>
+          <xm:sqref>H11:H12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3370FDA2-02DE-44A0-8BA4-2704757E9C21}">
@@ -9327,6 +9261,17 @@
           <xm:sqref>H9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9A315D70-FADC-49E0-A04F-9A0055B0B92E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="97" operator="equal" id="{17615FE7-B548-414A-900F-EB2D2B5E0D8B}">
             <xm:f>'C:\2016\工作汇报\周报\12月第5周\[技术平台开发组周报20161223---郑惠娜.xlsx]李国辉'!#REF!</xm:f>
             <x14:dxf>
@@ -9339,17 +9284,6 @@
           </x14:cfRule>
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9A315D70-FADC-49E0-A04F-9A0055B0B92E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H12</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="107">
   <si>
     <t>组别</t>
   </si>
@@ -1016,7 +1016,29 @@
     <cellStyle name="常规 3 2" xfId="2"/>
     <cellStyle name="常规 3 2 2" xfId="4"/>
   </cellStyles>
-  <dxfs count="271">
+  <dxfs count="273">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3347,7 +3369,12 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFFFF99"/>
@@ -3670,24 +3697,24 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.86328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.1328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.3984375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.265625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.1328125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.1328125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.36328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
@@ -3703,7 +3730,7 @@
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
@@ -3719,7 +3746,7 @@
       <c r="K2" s="59"/>
       <c r="L2" s="60"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="30.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -3757,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -3791,7 +3818,7 @@
       <c r="K4" s="39"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -3825,7 +3852,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -3859,7 +3886,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -3893,7 +3920,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -3927,7 +3954,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -3957,7 +3984,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -3989,7 +4016,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -4019,7 +4046,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -4057,7 +4084,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="270" priority="1184" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="1184" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1185">
@@ -4074,16 +4101,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="269" priority="1186" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="1186" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="1187" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="1187" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="1188" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="1188" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="1189" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="1189" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1190">
@@ -4142,16 +4169,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="265" priority="1423" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="1423" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="1424" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="1424" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="1425" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="1425" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="1426" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="1426" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1427">
@@ -4196,16 +4223,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="261" priority="1454" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="1454" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="1455" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="1455" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="1456" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="1456" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="1457" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="1457" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1458">
@@ -4250,7 +4277,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="257" priority="826" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="826" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="827">
@@ -4267,16 +4294,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="256" priority="828" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="828" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="829" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="829" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="830" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="831" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="831" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="832">
@@ -4321,12 +4348,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="252" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="232" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="251" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="233" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="234">
@@ -4343,16 +4370,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="250" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="235" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="236" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="237" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="238" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="239">
@@ -4397,12 +4424,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="246" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="231" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="245" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="244" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="245">
@@ -4419,16 +4446,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="244" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="246" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="247" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="248" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="249" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="250">
@@ -4473,12 +4500,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="240" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="144" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="239" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="146">
@@ -4495,16 +4522,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="238" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="147" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="148" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="149" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="150" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="151">
@@ -4549,12 +4576,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="234" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="233" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -4571,16 +4598,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="232" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -4625,12 +4652,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="228" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="227" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -4647,16 +4674,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="226" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -4701,12 +4728,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="222" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="221" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -4723,16 +4750,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="220" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -4777,12 +4804,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="216" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="215" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -4799,16 +4826,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="214" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -4853,12 +4880,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="210" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="209" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -4875,16 +4902,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="208" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -4929,12 +4956,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="204" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="203" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -4951,16 +4978,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="202" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5179,24 +5206,24 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.86328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.1328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.3984375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.265625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.1328125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.1328125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.36328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
@@ -5212,7 +5239,7 @@
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
@@ -5228,7 +5255,7 @@
       <c r="K2" s="59"/>
       <c r="L2" s="60"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="30.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -5266,7 +5293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5300,7 +5327,7 @@
       </c>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5332,7 +5359,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5364,7 +5391,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -5398,7 +5425,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -5428,7 +5455,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -5458,7 +5485,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -5488,7 +5515,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -5520,7 +5547,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -5560,7 +5587,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="197" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -5577,16 +5604,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="196" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -5645,16 +5672,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="192" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -5699,16 +5726,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="188" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -5753,7 +5780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="184" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -5770,16 +5797,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="183" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -5824,12 +5851,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="179" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="178" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -5846,16 +5873,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="177" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -5900,12 +5927,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="173" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="172" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="111">
@@ -5922,16 +5949,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="171" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="112" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="113" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="114" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="115" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -5976,12 +6003,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="167" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="166" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -5998,16 +6025,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="165" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -6052,12 +6079,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="161" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="160" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -6074,16 +6101,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="159" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -6128,12 +6155,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="155" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="154" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -6150,16 +6177,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="153" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -6204,12 +6231,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="149" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="148" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -6226,16 +6253,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="147" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -6280,12 +6307,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="143" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="142" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">
@@ -6302,16 +6329,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="141" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="28" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="29" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="30" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="31" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -6356,12 +6383,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="137" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="136" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -6378,16 +6405,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="135" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6432,12 +6459,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="131" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="130" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -6454,16 +6481,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="129" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6682,24 +6709,24 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.46484375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.1328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.3984375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.265625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.1328125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.1328125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.36328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
@@ -6715,7 +6742,7 @@
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
@@ -6731,7 +6758,7 @@
       <c r="K2" s="59"/>
       <c r="L2" s="60"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="30.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -6769,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -6801,7 +6828,7 @@
       <c r="K4" s="43"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="11" t="s">
         <v>48</v>
@@ -6831,7 +6858,7 @@
       <c r="K5" s="43"/>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -6861,7 +6888,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -6891,7 +6918,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="87.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="87.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="11" t="s">
         <v>48</v>
@@ -6921,7 +6948,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="53"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -6953,7 +6980,7 @@
       <c r="K9" s="16"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -6993,7 +7020,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="124" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -7010,16 +7037,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="123" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -7078,16 +7105,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="119" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -7132,16 +7159,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="115" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -7186,7 +7213,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="111" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -7203,16 +7230,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="110" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -7257,12 +7284,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="106" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="105" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -7279,16 +7306,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="104" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -7333,12 +7360,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="100" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="99" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -7355,16 +7382,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="98" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -7409,12 +7436,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="94" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="93" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -7431,16 +7458,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="92" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -7485,21 +7512,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="88" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
+    <cfRule type="cellIs" dxfId="89" priority="163" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="163" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="87" priority="163" operator="equal">
-      <formula>"cancel"</formula>
+      <formula>"close"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="86" priority="163" operator="equal">
-      <formula>"ongoing"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="163" operator="equal">
-      <formula>"close"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="163" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="163">
@@ -7544,7 +7571,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="83" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -7561,16 +7588,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="82" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -7615,12 +7642,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="78" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="77" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -7637,16 +7664,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="76" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -7691,17 +7718,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="72" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -7718,16 +7745,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -7772,7 +7799,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="65" priority="1463" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="1463" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1464">
@@ -7937,27 +7964,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.19921875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.3984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.265625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.1328125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.1328125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.06640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.36328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.08984375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.08984375" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
@@ -7972,7 +7999,7 @@
       <c r="J1" s="57"/>
       <c r="K1" s="57"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
@@ -7987,7 +8014,7 @@
       <c r="J2" s="59"/>
       <c r="K2" s="60"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="30.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -8022,7 +8049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -8053,7 +8080,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -8080,7 +8107,7 @@
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -8111,7 +8138,7 @@
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -8140,7 +8167,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -8171,7 +8198,7 @@
       <c r="J8" s="36"/>
       <c r="K8" s="38"/>
     </row>
-    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -8200,7 +8227,7 @@
       <c r="J9" s="26"/>
       <c r="K9" s="53"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -8231,7 +8258,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="30"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -8262,7 +8289,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="11"/>
       <c r="C12" s="45"/>
@@ -8275,13 +8302,11 @@
       <c r="J12" s="22"/>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="B13" s="11"/>
       <c r="C13" s="45" t="s">
         <v>106</v>
       </c>
@@ -8312,7 +8337,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H14:H1048576">
-    <cfRule type="cellIs" dxfId="63" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="99">
@@ -8329,16 +8354,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H1048576">
-    <cfRule type="cellIs" dxfId="62" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="100" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="101" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="102" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="103" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="104">
@@ -8397,16 +8422,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="58" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="110" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="111" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="112" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="113" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="114">
@@ -8451,16 +8476,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="54" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="119" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="120" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="121" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="122" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="123">
@@ -8505,7 +8530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="50" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -8522,16 +8547,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="49" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -8576,12 +8601,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="44" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="76">
@@ -8598,16 +8623,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="43" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="77" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="78" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="79" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="80" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="81">
@@ -8652,12 +8677,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="39" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="38" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -8674,16 +8699,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -8728,12 +8753,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="33" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="32" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="52">
@@ -8750,16 +8775,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="31" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="53" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="54" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="55" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="56" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="57">
@@ -8804,17 +8829,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="26" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="128" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="25" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="40">
@@ -8831,16 +8856,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="24" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="41" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="42" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="43" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="44" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -8885,12 +8910,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H12">
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H12">
-    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="28">
@@ -8907,16 +8932,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H12">
-    <cfRule type="cellIs" dxfId="18" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="33">
@@ -8961,17 +8986,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -8988,16 +9013,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -9042,7 +9067,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="7" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="129" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="130">
@@ -9059,12 +9084,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -9081,16 +9106,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="108">
   <si>
     <t>组别</t>
   </si>
@@ -471,11 +471,15 @@
     <t>RC8610 System</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1018,6 +1022,2335 @@
   </cellStyles>
   <dxfs count="273">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1036,2343 +3369,14 @@
       <fill>
         <patternFill patternType="none">
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="272"/>
+      <tableStyleElement type="headerRow" dxfId="271"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3405,7 +3409,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3697,24 +3701,24 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.36328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.08984375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
@@ -3730,7 +3734,7 @@
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
@@ -3746,7 +3750,7 @@
       <c r="K2" s="59"/>
       <c r="L2" s="60"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -3784,7 +3788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -3818,7 +3822,7 @@
       <c r="K4" s="39"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -3852,7 +3856,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -3886,7 +3890,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -3920,7 +3924,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -3954,7 +3958,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -3984,7 +3988,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -4016,7 +4020,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -4046,7 +4050,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -4084,7 +4088,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="272" priority="1184" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="1184" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1185">
@@ -4101,16 +4105,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="271" priority="1186" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="1186" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="1187" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="1187" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="1188" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="1188" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="1189" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="1189" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1190">
@@ -4169,16 +4173,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="267" priority="1423" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="1423" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="1424" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="1424" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="1425" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="1425" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="1426" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="1426" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1427">
@@ -4223,16 +4227,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="263" priority="1454" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="1454" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="1455" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="1455" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="1456" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="1456" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="1457" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="1457" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1458">
@@ -4277,7 +4281,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="259" priority="826" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="826" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="827">
@@ -4294,16 +4298,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="258" priority="828" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="828" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="829" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="829" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="830" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="831" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="831" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="832">
@@ -4348,12 +4352,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="254" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="232" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="253" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="233" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="234">
@@ -4370,16 +4374,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="252" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="235" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="236" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="237" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="238" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="239">
@@ -4424,12 +4428,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="248" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="231" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="247" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="244" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="245">
@@ -4446,16 +4450,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="246" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="246" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="247" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="248" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="249" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="250">
@@ -4500,12 +4504,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="242" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="144" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="241" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="146">
@@ -4522,16 +4526,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="240" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="147" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="148" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="149" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="150" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="151">
@@ -4576,12 +4580,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="236" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="235" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -4598,16 +4602,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="234" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -4652,12 +4656,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="230" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="229" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -4674,16 +4678,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="228" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -4728,12 +4732,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="224" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="223" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -4750,16 +4754,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="222" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -4804,12 +4808,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="218" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="217" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -4826,16 +4830,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="216" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -4880,12 +4884,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="212" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="211" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -4902,16 +4906,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="210" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -4956,12 +4960,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="206" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="205" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -4978,16 +4982,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="204" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5206,24 +5210,24 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.36328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.08984375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
@@ -5239,7 +5243,7 @@
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
@@ -5255,7 +5259,7 @@
       <c r="K2" s="59"/>
       <c r="L2" s="60"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -5293,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5327,7 +5331,7 @@
       </c>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5359,7 +5363,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5391,7 +5395,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -5425,7 +5429,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -5455,7 +5459,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -5485,7 +5489,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -5515,7 +5519,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -5547,7 +5551,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -5587,7 +5591,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="199" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -5604,16 +5608,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="198" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -5672,16 +5676,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="194" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -5726,16 +5730,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="190" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -5780,7 +5784,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="186" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -5797,16 +5801,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="185" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -5851,12 +5855,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="181" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="180" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -5873,16 +5877,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="179" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -5927,12 +5931,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="175" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="174" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="111">
@@ -5949,16 +5953,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="173" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="112" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="113" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="114" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="115" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -6003,12 +6007,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="169" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="168" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -6025,16 +6029,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="167" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -6079,12 +6083,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="163" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="162" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -6101,16 +6105,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="161" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -6155,12 +6159,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="157" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="156" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -6177,16 +6181,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="155" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -6231,12 +6235,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="151" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="150" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -6253,16 +6257,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="149" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -6307,12 +6311,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="145" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="144" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">
@@ -6329,16 +6333,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="143" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="28" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="29" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="30" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="31" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -6383,12 +6387,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="139" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="138" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -6405,16 +6409,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="137" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6459,12 +6463,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="133" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="132" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -6481,16 +6485,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="131" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6709,24 +6713,24 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.36328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.08984375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
@@ -6742,7 +6746,7 @@
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
@@ -6758,7 +6762,7 @@
       <c r="K2" s="59"/>
       <c r="L2" s="60"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -6796,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -6828,7 +6832,7 @@
       <c r="K4" s="43"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="11" t="s">
         <v>48</v>
@@ -6858,7 +6862,7 @@
       <c r="K5" s="43"/>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -6888,7 +6892,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -6918,7 +6922,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="87.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="87.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="11" t="s">
         <v>48</v>
@@ -6948,7 +6952,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="53"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -6980,7 +6984,7 @@
       <c r="K9" s="16"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -7020,7 +7024,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="126" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -7037,16 +7041,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="125" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -7105,16 +7109,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="121" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -7159,16 +7163,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="117" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -7213,7 +7217,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="113" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -7230,16 +7234,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="112" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -7284,12 +7288,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="108" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="107" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -7306,16 +7310,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="106" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -7360,12 +7364,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="102" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="101" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -7382,16 +7386,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="100" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -7436,12 +7440,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="96" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="95" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -7458,16 +7462,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="94" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -7512,21 +7516,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="90" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="89" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="163" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="163" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="163" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="163" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="163">
@@ -7571,7 +7575,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="85" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -7588,16 +7592,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="84" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -7642,12 +7646,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="80" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="79" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -7664,16 +7668,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="78" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -7718,17 +7722,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="74" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="73" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="72" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -7745,16 +7749,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="71" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -7799,7 +7803,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="67" priority="1463" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1463" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1464">
@@ -7965,26 +7969,26 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.1796875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.36328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.08984375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.08984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
@@ -7999,7 +8003,7 @@
       <c r="J1" s="57"/>
       <c r="K1" s="57"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
@@ -8014,7 +8018,7 @@
       <c r="J2" s="59"/>
       <c r="K2" s="60"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -8049,7 +8053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -8080,7 +8084,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -8107,7 +8111,7 @@
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -8138,7 +8142,7 @@
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -8167,7 +8171,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -8198,7 +8202,7 @@
       <c r="J8" s="36"/>
       <c r="K8" s="38"/>
     </row>
-    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -8227,7 +8231,7 @@
       <c r="J9" s="26"/>
       <c r="K9" s="53"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -8258,7 +8262,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="30"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -8289,7 +8293,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="11"/>
       <c r="C12" s="45"/>
@@ -8302,11 +8306,13 @@
       <c r="J12" s="22"/>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="C13" s="45" t="s">
         <v>106</v>
       </c>
@@ -8337,7 +8343,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H14:H1048576">
-    <cfRule type="cellIs" dxfId="65" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="99">
@@ -8354,16 +8360,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H1048576">
-    <cfRule type="cellIs" dxfId="64" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="100" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="101" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="102" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="103" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="104">
@@ -8422,16 +8428,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="60" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="110" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="111" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="112" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="113" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="114">
@@ -8476,16 +8482,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="56" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="119" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="120" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="121" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="122" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="123">
@@ -8530,7 +8536,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="52" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -8547,16 +8553,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="51" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -8601,12 +8607,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="47" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="46" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="76">
@@ -8623,16 +8629,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="45" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="77" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="78" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="79" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="80" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="81">
@@ -8677,12 +8683,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="41" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="40" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -8699,16 +8705,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="39" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -8753,12 +8759,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="35" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="34" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="52">
@@ -8775,16 +8781,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="33" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="53" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="54" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="56" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="57">
@@ -8829,17 +8835,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="29" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="28" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="128" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="40">
@@ -8856,16 +8862,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="26" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="41" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="42" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="43" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="44" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -8910,12 +8916,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H12">
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H12">
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="28">
@@ -8932,16 +8938,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H12">
-    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="29" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="30" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="31" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="32" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="33">
@@ -8986,17 +8992,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="16" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -9013,16 +9019,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -9067,7 +9073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="9" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="129" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="130">
@@ -9084,12 +9090,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -9106,16 +9112,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{021ADF43-9645-466D-9169-EC138FE682D0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0416" sheetId="6" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="107">
   <si>
     <t>组别</t>
   </si>
@@ -471,15 +472,11 @@
     <t>RC8610 System</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1014,11 +1011,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="常规 2 2" xfId="1"/>
-    <cellStyle name="常规 2 3" xfId="3"/>
-    <cellStyle name="常规 3 2" xfId="2"/>
-    <cellStyle name="常规 3 2 2" xfId="4"/>
+    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 3 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="273">
     <dxf>
@@ -3374,7 +3371,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="272"/>
       <tableStyleElement type="headerRow" dxfId="271"/>
     </tableStyle>
@@ -3409,7 +3406,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3484,6 +3481,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3519,6 +3533,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3694,31 +3725,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
@@ -3734,7 +3765,7 @@
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
@@ -3750,7 +3781,7 @@
       <c r="K2" s="59"/>
       <c r="L2" s="60"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -3788,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -3822,7 +3853,7 @@
       <c r="K4" s="39"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -3856,7 +3887,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -3890,7 +3921,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -3924,7 +3955,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -3958,7 +3989,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -3988,7 +4019,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -4020,7 +4051,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -4050,7 +4081,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -4081,7 +4112,7 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12"/>
+  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -5036,13 +5067,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5203,31 +5234,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
@@ -5243,7 +5274,7 @@
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
@@ -5259,7 +5290,7 @@
       <c r="K2" s="59"/>
       <c r="L2" s="60"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -5297,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5331,7 +5362,7 @@
       </c>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5363,7 +5394,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5395,7 +5426,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -5429,7 +5460,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -5459,7 +5490,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -5489,7 +5520,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -5519,7 +5550,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -5551,7 +5582,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -5584,7 +5615,7 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12"/>
+  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -6539,13 +6570,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6706,31 +6737,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
@@ -6746,7 +6777,7 @@
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
@@ -6762,7 +6793,7 @@
       <c r="K2" s="59"/>
       <c r="L2" s="60"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -6800,7 +6831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -6832,7 +6863,7 @@
       <c r="K4" s="43"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="11" t="s">
         <v>48</v>
@@ -6862,7 +6893,7 @@
       <c r="K5" s="43"/>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -6892,7 +6923,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -6922,7 +6953,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="87.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="87.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="11" t="s">
         <v>48</v>
@@ -6952,7 +6983,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="53"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -6984,7 +7015,7 @@
       <c r="K9" s="16"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -7017,7 +7048,7 @@
       <c r="L10" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J10"/>
+  <autoFilter ref="J3:J10" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -7820,13 +7851,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7965,30 +7996,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
@@ -8003,7 +8034,7 @@
       <c r="J1" s="57"/>
       <c r="K1" s="57"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
@@ -8018,7 +8049,7 @@
       <c r="J2" s="59"/>
       <c r="K2" s="60"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -8053,7 +8084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -8084,7 +8115,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -8111,7 +8142,7 @@
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -8142,7 +8173,7 @@
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -8171,7 +8202,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -8202,7 +8233,7 @@
       <c r="J8" s="36"/>
       <c r="K8" s="38"/>
     </row>
-    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="38.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -8231,7 +8262,7 @@
       <c r="J9" s="26"/>
       <c r="K9" s="53"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -8262,7 +8293,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="30"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -8293,7 +8324,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="36.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="11"/>
       <c r="C12" s="45"/>
@@ -8306,13 +8337,11 @@
       <c r="J12" s="22"/>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>107</v>
-      </c>
+      <c r="B13" s="11"/>
       <c r="C13" s="45" t="s">
         <v>106</v>
       </c>
@@ -8336,7 +8365,7 @@
       <c r="K13" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="I3:I11"/>
+  <autoFilter ref="I3:I11" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -9166,13 +9195,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H13" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B13" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{021ADF43-9645-466D-9169-EC138FE682D0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0416" sheetId="6" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="108">
   <si>
     <t>组别</t>
   </si>
@@ -472,11 +471,15 @@
     <t>RC8610 System</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1011,11 +1014,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 3 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 2 2" xfId="1"/>
+    <cellStyle name="常规 2 3" xfId="3"/>
+    <cellStyle name="常规 3 2" xfId="2"/>
+    <cellStyle name="常规 3 2 2" xfId="4"/>
   </cellStyles>
   <dxfs count="273">
     <dxf>
@@ -3371,7 +3374,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="272"/>
       <tableStyleElement type="headerRow" dxfId="271"/>
     </tableStyle>
@@ -3406,7 +3409,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3481,23 +3484,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3533,23 +3519,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3725,31 +3694,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
@@ -3765,7 +3734,7 @@
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
@@ -3781,7 +3750,7 @@
       <c r="K2" s="59"/>
       <c r="L2" s="60"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -3819,7 +3788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -3853,7 +3822,7 @@
       <c r="K4" s="39"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -3887,7 +3856,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -3921,7 +3890,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -3955,7 +3924,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -3989,7 +3958,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -4019,7 +3988,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -4051,7 +4020,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -4081,7 +4050,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -4112,7 +4081,7 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="J3:J12"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -5067,13 +5036,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5234,31 +5203,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
@@ -5274,7 +5243,7 @@
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
@@ -5290,7 +5259,7 @@
       <c r="K2" s="59"/>
       <c r="L2" s="60"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -5328,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5362,7 +5331,7 @@
       </c>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5394,7 +5363,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5426,7 +5395,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -5460,7 +5429,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -5490,7 +5459,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -5520,7 +5489,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -5550,7 +5519,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -5582,7 +5551,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -5615,7 +5584,7 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="J3:J12"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -6570,13 +6539,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6737,31 +6706,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
@@ -6777,7 +6746,7 @@
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
@@ -6793,7 +6762,7 @@
       <c r="K2" s="59"/>
       <c r="L2" s="60"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -6831,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -6863,7 +6832,7 @@
       <c r="K4" s="43"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="11" t="s">
         <v>48</v>
@@ -6893,7 +6862,7 @@
       <c r="K5" s="43"/>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -6923,7 +6892,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -6953,7 +6922,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="87.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="87.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="11" t="s">
         <v>48</v>
@@ -6983,7 +6952,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="53"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -7015,7 +6984,7 @@
       <c r="K9" s="16"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -7048,7 +7017,7 @@
       <c r="L10" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J10" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="J3:J10"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -7851,13 +7820,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7996,30 +7965,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
@@ -8034,7 +8003,7 @@
       <c r="J1" s="57"/>
       <c r="K1" s="57"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
@@ -8049,7 +8018,7 @@
       <c r="J2" s="59"/>
       <c r="K2" s="60"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -8084,7 +8053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -8115,7 +8084,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -8142,7 +8111,7 @@
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -8173,7 +8142,7 @@
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -8202,7 +8171,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -8233,7 +8202,7 @@
       <c r="J8" s="36"/>
       <c r="K8" s="38"/>
     </row>
-    <row r="9" spans="1:11" ht="38.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -8262,7 +8231,7 @@
       <c r="J9" s="26"/>
       <c r="K9" s="53"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -8293,7 +8262,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="30"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -8324,7 +8293,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="36.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="11"/>
       <c r="C12" s="45"/>
@@ -8337,11 +8306,13 @@
       <c r="J12" s="22"/>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="1:11" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="C13" s="45" t="s">
         <v>106</v>
       </c>
@@ -8365,7 +8336,7 @@
       <c r="K13" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="I3:I11" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="I3:I11"/>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -9195,13 +9166,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H13" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H13">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B13" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B13">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DCB080E9-3968-405C-8438-6F08E1D81B2C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0416" sheetId="6" r:id="rId1"/>
@@ -479,7 +480,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1014,14 +1015,51 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="常规 2 2" xfId="1"/>
-    <cellStyle name="常规 2 3" xfId="3"/>
-    <cellStyle name="常规 3 2" xfId="2"/>
-    <cellStyle name="常规 3 2 2" xfId="4"/>
+    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 3 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="273">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -1029,6 +1067,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1141,50 +1186,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3374,7 +3375,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="272"/>
       <tableStyleElement type="headerRow" dxfId="271"/>
     </tableStyle>
@@ -3409,7 +3410,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3484,6 +3485,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3519,6 +3537,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3694,7 +3729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -4081,7 +4116,7 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12"/>
+  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -5036,13 +5071,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5203,7 +5238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -5584,7 +5619,7 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12"/>
+  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -6539,13 +6574,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6706,7 +6741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -7017,7 +7052,7 @@
       <c r="L10" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J10"/>
+  <autoFilter ref="J3:J10" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -7820,13 +7855,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7965,11 +8000,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8293,56 +8328,43 @@
       <c r="J11" s="22"/>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="22"/>
+    <row r="12" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="46">
+        <v>43240</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>86</v>
+      </c>
       <c r="G12" s="22"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="49"/>
+      <c r="H12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>92</v>
+      </c>
       <c r="J12" s="22"/>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
-        <v>9</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="46">
-        <v>43240</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="31"/>
-    </row>
   </sheetData>
-  <autoFilter ref="I3:I11"/>
+  <autoFilter ref="I3:I11" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H14:H1048576">
+  <conditionalFormatting sqref="H13:H1048576">
     <cfRule type="cellIs" dxfId="63" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -8359,7 +8381,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H1048576">
+  <conditionalFormatting sqref="H13:H1048576">
     <cfRule type="cellIs" dxfId="62" priority="100" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
@@ -8915,16 +8937,190 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H12">
+  <conditionalFormatting sqref="H11">
     <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H12">
-    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="28">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3370FDA2-02DE-44A0-8BA4-2704757E9C21}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="12" priority="129" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="130">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{789FC2A6-4C89-44D8-9CCE-14F4A7A119CA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9A315D70-FADC-49E0-A04F-9A0055B0B92E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="4" priority="1465" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="1466">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8937,36 +9133,36 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H12">
-    <cfRule type="cellIs" dxfId="18" priority="29" operator="equal">
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="3" priority="1467" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1468" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1469" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1470" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="1471">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1472">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1473">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8974,189 +9170,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3370FDA2-02DE-44A0-8BA4-2704757E9C21}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
-      <formula>"cancel"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
-      <formula>"ongoing"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
-      <formula>"close"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
-      <formula>"delay"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="7" priority="129" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="130">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{789FC2A6-4C89-44D8-9CCE-14F4A7A119CA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9A315D70-FADC-49E0-A04F-9A0055B0B92E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>"cancel"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"ongoing"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>"close"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
-      <formula>"delay"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="1474">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1475">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9166,13 +9188,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H12" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9190,7 +9212,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H14:H1048576</xm:sqref>
+          <xm:sqref>H13:H1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4B6D4E27-1CF7-47DA-9B80-F680219B10C6}">
@@ -9259,17 +9281,6 @@
           <xm:sqref>H10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CF30E24B-749D-445A-ABF1-D3E12EAF25FA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H11:H12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3370FDA2-02DE-44A0-8BA4-2704757E9C21}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -9300,7 +9311,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H13</xm:sqref>
+          <xm:sqref>H12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="97" operator="equal" id="{17615FE7-B548-414A-900F-EB2D2B5E0D8B}">
@@ -9315,6 +9326,17 @@
           </x14:cfRule>
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CF30E24B-749D-445A-ABF1-D3E12EAF25FA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H11</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DCB080E9-3968-405C-8438-6F08E1D81B2C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F83962A6-74A8-4D4B-A78C-FDAFEA9652B5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="112">
   <si>
     <t>组别</t>
   </si>
@@ -469,11 +469,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RC8610 System</t>
+    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他</t>
+    <t>RC8610 System一期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC8610 System二期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/5/7文档编写完成文档编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘善翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院调研</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1021,7 +1037,7 @@
     <cellStyle name="常规 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="常规 3 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="273">
+  <dxfs count="279">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1063,6 +1079,57 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3376,8 +3443,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="272"/>
-      <tableStyleElement type="headerRow" dxfId="271"/>
+      <tableStyleElement type="wholeTable" dxfId="278"/>
+      <tableStyleElement type="headerRow" dxfId="277"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4123,7 +4190,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="270" priority="1184" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="1184" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1185">
@@ -4140,16 +4207,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="269" priority="1186" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="1186" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="1187" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="1187" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="1188" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="1188" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="1189" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="1189" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1190">
@@ -4208,16 +4275,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="265" priority="1423" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="1423" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="1424" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="1424" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="1425" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="1425" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="1426" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="1426" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1427">
@@ -4262,16 +4329,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="261" priority="1454" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="1454" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="1455" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="1455" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="1456" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="1456" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="1457" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="1457" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1458">
@@ -4316,7 +4383,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="257" priority="826" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="826" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="827">
@@ -4333,16 +4400,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="256" priority="828" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="828" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="829" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="829" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="830" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="831" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="831" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="832">
@@ -4387,12 +4454,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="252" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="232" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="251" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="233" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="234">
@@ -4409,16 +4476,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="250" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="235" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="236" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="237" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="238" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="239">
@@ -4463,12 +4530,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="246" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="231" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="245" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="244" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="245">
@@ -4485,16 +4552,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="244" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="246" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="247" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="248" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="249" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="250">
@@ -4539,12 +4606,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="240" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="144" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="239" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="146">
@@ -4561,16 +4628,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="238" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="147" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="148" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="149" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="150" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="151">
@@ -4615,12 +4682,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="234" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="233" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -4637,16 +4704,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="232" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -4691,12 +4758,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="228" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="227" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -4713,16 +4780,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="226" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -4767,12 +4834,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="222" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="221" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -4789,16 +4856,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="220" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -4843,12 +4910,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="216" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="215" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -4865,16 +4932,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="214" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -4919,12 +4986,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="210" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="209" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -4941,16 +5008,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="208" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -4995,12 +5062,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="204" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="203" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -5017,16 +5084,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="202" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5626,7 +5693,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="197" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -5643,16 +5710,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="196" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -5711,16 +5778,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="192" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -5765,16 +5832,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="188" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -5819,7 +5886,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="184" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -5836,16 +5903,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="183" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -5890,12 +5957,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="179" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="178" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -5912,16 +5979,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="177" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -5966,12 +6033,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="173" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="172" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="111">
@@ -5988,16 +6055,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="171" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="112" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="113" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="114" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="115" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -6042,12 +6109,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="167" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="166" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -6064,16 +6131,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="165" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -6118,12 +6185,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="161" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="160" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -6140,16 +6207,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="159" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -6194,12 +6261,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="155" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="154" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -6216,16 +6283,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="153" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -6270,12 +6337,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="149" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="148" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -6292,16 +6359,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="147" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -6346,12 +6413,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="143" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="142" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">
@@ -6368,16 +6435,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="141" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="28" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="29" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="30" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="31" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -6422,12 +6489,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="137" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="136" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -6444,16 +6511,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="135" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6498,12 +6565,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="131" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="130" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -6520,16 +6587,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="129" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -7059,7 +7126,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="124" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -7076,16 +7143,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="123" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -7144,16 +7211,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="119" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -7198,16 +7265,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="115" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -7252,7 +7319,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="111" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -7269,16 +7336,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="110" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -7323,12 +7390,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="106" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="105" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -7345,16 +7412,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="104" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -7399,12 +7466,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="100" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="99" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -7421,16 +7488,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="98" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -7475,12 +7542,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="94" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="93" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -7497,16 +7564,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="92" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -7551,21 +7618,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="88" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="87" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="163" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="163" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="163" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="163" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="163">
@@ -7610,7 +7677,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="83" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -7627,16 +7694,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="82" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -7681,12 +7748,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="78" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="77" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -7703,16 +7770,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="76" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -7757,17 +7824,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="72" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -7784,16 +7851,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -7838,7 +7905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="65" priority="1463" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="1463" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1464">
@@ -8001,19 +8068,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="13" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
     <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
@@ -8328,26 +8395,28 @@
       <c r="J11" s="22"/>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="1:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="45" t="s">
         <v>107</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>106</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="46">
-        <v>43240</v>
+      <c r="E12" s="46" t="s">
+        <v>109</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="22" t="s">
+        <v>111</v>
+      </c>
       <c r="H12" s="19" t="s">
         <v>13</v>
       </c>
@@ -8356,6 +8425,35 @@
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="46">
+        <v>43227</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="I3:I11" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
@@ -8364,11 +8462,11 @@
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H13:H1048576">
-    <cfRule type="cellIs" dxfId="63" priority="98" operator="equal">
+  <conditionalFormatting sqref="H14:H1048576">
+    <cfRule type="cellIs" dxfId="69" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="99">
+    <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8381,36 +8479,36 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H1048576">
-    <cfRule type="cellIs" dxfId="62" priority="100" operator="equal">
+  <conditionalFormatting sqref="H14:H1048576">
+    <cfRule type="cellIs" dxfId="68" priority="112" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="113" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="114" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="115" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="105">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="106">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8418,15 +8516,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="108">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8436,7 +8534,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="dataBar" priority="109">
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8450,35 +8548,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="58" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="122" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="123" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="124" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="125" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="116">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8486,15 +8584,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="118">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8504,35 +8602,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="54" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="131" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="132" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="133" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="134" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="123">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="124">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="125">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8540,15 +8638,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="126">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="127">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8558,10 +8656,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="50" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="87">
+    <cfRule type="dataBar" priority="99">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8575,35 +8673,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="49" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="100" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="101" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="102" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="103" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="94">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8611,15 +8709,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="96">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8629,15 +8727,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="44" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="76">
+    <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8651,35 +8749,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="43" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="89" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="90" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="91" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="92" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="83">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8687,15 +8785,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="85">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8705,15 +8803,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="39" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="38" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="64">
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8727,35 +8825,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="77" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="78" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="79" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="80" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="71">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8763,15 +8861,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="73">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8781,15 +8879,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="33" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="32" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="52">
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8803,35 +8901,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="31" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8839,15 +8937,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8857,20 +8955,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="26" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="140" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="25" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="40">
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8884,35 +8982,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="24" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="53" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="54" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="55" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="56" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8920,15 +9018,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8938,25 +9036,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8970,35 +9068,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="30" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="31" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9006,15 +9104,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9024,10 +9122,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="12" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="141" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="130">
+    <cfRule type="dataBar" priority="142">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9041,15 +9139,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9063,35 +9161,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9099,15 +9197,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9117,10 +9215,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="4" priority="1465" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1477" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1466">
+    <cfRule type="dataBar" priority="1478">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9134,35 +9232,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="3" priority="1467" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1479" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1468" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1480" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1469" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1481" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1470" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1482" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="1471">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1472">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1473">
+    <cfRule type="colorScale" priority="1483">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1484">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1485">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9170,15 +9268,91 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1474">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1475">
+    <cfRule type="colorScale" priority="1486">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1487">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CF6208A7-9BEA-47AF-A004-82315FE1B266}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9188,13 +9362,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H12" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H13" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B13" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9212,7 +9386,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H13:H1048576</xm:sqref>
+          <xm:sqref>H14:H1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4B6D4E27-1CF7-47DA-9B80-F680219B10C6}">
@@ -9314,7 +9488,18 @@
           <xm:sqref>H12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="97" operator="equal" id="{17615FE7-B548-414A-900F-EB2D2B5E0D8B}">
+          <x14:cfRule type="dataBar" id="{CF30E24B-749D-445A-ABF1-D3E12EAF25FA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="109" operator="equal" id="{17615FE7-B548-414A-900F-EB2D2B5E0D8B}">
             <xm:f>'C:\2016\工作汇报\周报\12月第5周\[技术平台开发组周报20161223---郑惠娜.xlsx]李国辉'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -9327,7 +9512,7 @@
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CF30E24B-749D-445A-ABF1-D3E12EAF25FA}">
+          <x14:cfRule type="dataBar" id="{CF6208A7-9BEA-47AF-A004-82315FE1B266}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9335,7 +9520,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H11</xm:sqref>
+          <xm:sqref>H13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F83962A6-74A8-4D4B-A78C-FDAFEA9652B5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{46CE7ABD-6A9A-4AF2-82C6-43105B81695C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="114">
   <si>
     <t>组别</t>
   </si>
@@ -489,7 +489,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>医院调研</t>
+    <t>已立项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院调研。
+NISIRC8610 服务与客户端程序打包可安装 2018/5/11----李贯涛
+NISIRC8610 守护进程开发 2018/5/9----李贯涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档编写。
+RC8610 细节调整与已发现的BUG修复。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,7 +616,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -831,6 +842,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -846,7 +894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1016,6 +1064,39 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1039,6 +1120,13 @@
   </cellStyles>
   <dxfs count="279">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1086,13 +1174,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3821,36 +3902,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -5330,36 +5411,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -6833,36 +6914,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -8068,10 +8149,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8091,34 +8172,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -8395,7 +8476,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="1:11" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -8412,10 +8493,10 @@
         <v>109</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>13</v>
@@ -8426,34 +8507,52 @@
       <c r="J12" s="22"/>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
-        <v>9</v>
-      </c>
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="57">
+        <v>10</v>
+      </c>
+      <c r="B13" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="46">
+      <c r="D13" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="61">
         <v>43227</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="19" t="s">
+      <c r="G13" s="51"/>
+      <c r="H13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="49" t="s">
+      <c r="I13" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="31"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="63"/>
+    </row>
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="67"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="66"/>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="58"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="58"/>
     </row>
   </sheetData>
   <autoFilter ref="I3:I11" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
@@ -8462,7 +8561,7 @@
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H14:H1048576">
+  <conditionalFormatting sqref="H15:H1048576">
     <cfRule type="cellIs" dxfId="69" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -8479,7 +8578,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H1048576">
+  <conditionalFormatting sqref="H15:H1048576">
     <cfRule type="cellIs" dxfId="68" priority="112" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
@@ -9285,13 +9384,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="H13:H14">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+  <conditionalFormatting sqref="H13:H14">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -9307,17 +9406,17 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="H13:H14">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -9362,10 +9461,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H13" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B13" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B16" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13" xr:uid="{00000000-0002-0000-0300-000002000000}">
@@ -9386,7 +9485,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H14:H1048576</xm:sqref>
+          <xm:sqref>H15:H1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4B6D4E27-1CF7-47DA-9B80-F680219B10C6}">
@@ -9499,6 +9598,17 @@
           <xm:sqref>H11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CF6208A7-9BEA-47AF-A004-82315FE1B266}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H13:H14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="109" operator="equal" id="{17615FE7-B548-414A-900F-EB2D2B5E0D8B}">
             <xm:f>'C:\2016\工作汇报\周报\12月第5周\[技术平台开发组周报20161223---郑惠娜.xlsx]李国辉'!#REF!</xm:f>
             <x14:dxf>
@@ -9511,17 +9621,6 @@
           </x14:cfRule>
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CF6208A7-9BEA-47AF-A004-82315FE1B266}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H13</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F83962A6-74A8-4D4B-A78C-FDAFEA9652B5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0416" sheetId="6" r:id="rId1"/>
@@ -20,14 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0416'!$J$3:$J$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'0423'!$J$3:$J$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'0503'!$J$3:$J$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'0507'!$I$3:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'0507'!$I$3:$I$13</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="119">
   <si>
     <t>组别</t>
   </si>
@@ -397,14 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将DDC模块加入，待完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已测试完成，走ECN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提测一版后整改问题；
 未去展厅定位84问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,10 +433,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>和测试组协调用已发布版本兼容并轨机型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018/5/16；
 2018/5/9评审客户端和web端UI草图</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,44 +446,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018/5/4前到展厅定位84问题</t>
+    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2018/5/4,开始自测；2018/5/6自测完成，待3.03测试完成后一起升级；
-2018/5/8号 C620病理模式
+    <t>RC8610 System一期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC8610 System二期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/5/7文档编写完成文档编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘善翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院调研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产者2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/8日提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义曲线 自动化生产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDC TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已立项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/8 培训完成迈瑞程序下载机制，5/11联调完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/5/8,开始自测；2018/5/10自测完成
+2018/5/8号 C620病理模式自测，2018/5/10自测，代码review完成
+3.04版本 5/11号提测
+导入理邦 新协议，5/9日前完成-徐海明，联调-5/11-张颖燕
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他</t>
+    <t>2018/5/4前到展厅定位84问题
+CGA2S1.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RC8610 System一期</t>
+    <t>已测试完成，走ECN，
+王海问题沟通和进一步计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RC8610 System二期</t>
+    <t>和测试组协调用已发布版本兼容并轨机型5/8号之前，沟通测试8420&amp;9810时间，ECN变更范围协调</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018/5/7文档编写完成文档编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘善翼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院调研</t>
+    <t>将DDC 控制通路 移植，并验证完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -605,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -831,6 +862,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -846,7 +888,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1028,16 +1070,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 3 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 2 2" xfId="1"/>
+    <cellStyle name="常规 2 3" xfId="3"/>
+    <cellStyle name="常规 3 2" xfId="2"/>
+    <cellStyle name="常规 3 2 2" xfId="4"/>
   </cellStyles>
-  <dxfs count="279">
+  <dxfs count="314">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1093,6 +1147,305 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3442,9 +3795,9 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="278"/>
-      <tableStyleElement type="headerRow" dxfId="277"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="313"/>
+      <tableStyleElement type="headerRow" dxfId="312"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3552,23 +3905,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3604,23 +3940,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3796,7 +4115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -4183,14 +4502,14 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="J3:J12"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="276" priority="1184" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="1184" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1185">
@@ -4207,16 +4526,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="275" priority="1186" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="1186" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="1187" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="1187" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="1188" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="1188" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="1189" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="1189" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1190">
@@ -4275,16 +4594,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="271" priority="1423" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="1423" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="1424" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="1424" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="1425" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="1425" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="1426" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="1426" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1427">
@@ -4329,16 +4648,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="267" priority="1454" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="1454" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="1455" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="1455" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="1456" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="1456" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="1457" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="1457" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1458">
@@ -4383,7 +4702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="263" priority="826" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="826" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="827">
@@ -4400,16 +4719,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="262" priority="828" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="828" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="829" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="829" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="830" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="831" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="831" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="832">
@@ -4454,12 +4773,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="258" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="232" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="257" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="233" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="234">
@@ -4476,16 +4795,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="256" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="235" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="236" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="237" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="238" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="239">
@@ -4530,12 +4849,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="252" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="231" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="251" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="244" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="245">
@@ -4552,16 +4871,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="250" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="246" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="247" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="248" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="249" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="250">
@@ -4606,12 +4925,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="246" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="144" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="245" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="146">
@@ -4628,16 +4947,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="244" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="147" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="148" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="149" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="150" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="151">
@@ -4682,12 +5001,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="240" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="239" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -4704,16 +5023,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="238" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -4758,12 +5077,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="234" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="233" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -4780,16 +5099,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="232" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -4834,12 +5153,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="228" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="227" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -4856,16 +5175,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="226" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -4910,12 +5229,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="222" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="221" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -4932,16 +5251,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="220" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -4986,12 +5305,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="216" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="215" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -5008,16 +5327,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="214" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -5062,12 +5381,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="210" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="209" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -5084,16 +5403,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="208" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5138,13 +5457,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5305,7 +5624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -5686,14 +6005,14 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="J3:J12"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="203" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -5710,16 +6029,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="202" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -5778,16 +6097,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="198" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -5832,16 +6151,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="194" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -5886,7 +6205,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="190" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -5903,16 +6222,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="189" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -5957,12 +6276,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="185" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="184" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -5979,16 +6298,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="183" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -6033,12 +6352,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="179" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="178" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="111">
@@ -6055,16 +6374,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="177" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="112" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="113" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="114" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="115" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -6109,12 +6428,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="173" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="172" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -6131,16 +6450,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="171" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -6185,12 +6504,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="167" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="166" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -6207,16 +6526,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="165" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -6261,12 +6580,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="161" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="160" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -6283,16 +6602,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="159" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -6337,12 +6656,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="155" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="154" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -6359,16 +6678,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="153" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -6413,12 +6732,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="149" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="148" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">
@@ -6435,16 +6754,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="147" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="28" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="29" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="30" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="31" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -6489,12 +6808,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="143" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="142" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -6511,16 +6830,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="141" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6565,12 +6884,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="137" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="136" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -6587,16 +6906,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="135" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6641,13 +6960,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6808,7 +7127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -7119,14 +7438,14 @@
       <c r="L10" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J10" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="J3:J10"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="130" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -7143,16 +7462,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -7211,16 +7530,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="125" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -7265,16 +7584,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="121" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -7319,7 +7638,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="117" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -7336,16 +7655,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="116" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -7390,12 +7709,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="112" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="111" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -7412,16 +7731,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="110" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -7466,12 +7785,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="106" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="105" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -7488,16 +7807,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="104" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -7542,12 +7861,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="100" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="99" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -7564,16 +7883,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="98" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -7618,21 +7937,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="94" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="93" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="163" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="163" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="163" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="163" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="163">
@@ -7677,7 +7996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="89" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -7694,16 +8013,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="88" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -7748,12 +8067,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="84" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="83" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -7770,16 +8089,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="82" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -7824,17 +8143,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="78" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -7851,16 +8170,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="75" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -7905,7 +8224,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="71" priority="1463" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="1463" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1464">
@@ -7922,13 +8241,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8067,11 +8386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8155,7 +8474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="141.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -8169,13 +8488,13 @@
         <v>16</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>13</v>
@@ -8194,13 +8513,13 @@
         <v>48</v>
       </c>
       <c r="C5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="54" t="s">
         <v>97</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>99</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
@@ -8208,7 +8527,7 @@
         <v>13</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
@@ -8227,10 +8546,10 @@
         <v>16</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G6" s="47" t="s">
         <v>77</v>
@@ -8244,7 +8563,7 @@
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -8258,11 +8577,11 @@
         <v>11</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H7" s="43" t="s">
         <v>13</v>
@@ -8273,67 +8592,62 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="46">
-        <v>43225</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="37" t="s">
+      <c r="E8" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="47"/>
+      <c r="H8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="38"/>
+      <c r="I8" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="61"/>
+      <c r="K8" s="62"/>
     </row>
-    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="46">
-        <v>43226</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="23" t="s">
+      <c r="B9" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="H9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="53"/>
+      <c r="I9" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="61"/>
+      <c r="K9" s="62"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -8341,132 +8655,192 @@
         <v>48</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="46">
+        <v>43225</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="30"/>
+        <v>31</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>27</v>
+      <c r="C11" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>11</v>
       </c>
       <c r="E11" s="46">
-        <v>43232</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>88</v>
-      </c>
+        <v>43226</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="26"/>
       <c r="H11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="31"/>
+      <c r="I11" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="K11" s="53"/>
     </row>
-    <row r="12" spans="1:11" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>107</v>
+        <v>48</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>111</v>
+      <c r="E12" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="31"/>
+      <c r="I12" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E13" s="46">
-        <v>43227</v>
+        <v>43232</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="22"/>
+        <v>87</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>88</v>
+      </c>
       <c r="H13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="31"/>
     </row>
+    <row r="14" spans="1:11" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="31"/>
+    </row>
+    <row r="15" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="46">
+        <v>43227</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="K15" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="I3:I11" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="I3:I13"/>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H14:H1048576">
-    <cfRule type="cellIs" dxfId="69" priority="110" operator="equal">
+  <conditionalFormatting sqref="H16:H1048576">
+    <cfRule type="cellIs" dxfId="104" priority="169" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="111">
+    <cfRule type="dataBar" priority="170">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8479,36 +8853,36 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H1048576">
-    <cfRule type="cellIs" dxfId="68" priority="112" operator="equal">
+  <conditionalFormatting sqref="H16:H1048576">
+    <cfRule type="cellIs" dxfId="103" priority="171" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="172" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="173" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="174" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="118">
+    <cfRule type="colorScale" priority="175">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="176">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="177">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8516,15 +8890,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="120">
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="179">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8534,7 +8908,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="dataBar" priority="121">
+    <cfRule type="dataBar" priority="180">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8548,35 +8922,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="64" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="181" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="182" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="183" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="184" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="126">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="127">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="128">
+    <cfRule type="colorScale" priority="185">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="186">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="187">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8584,15 +8958,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="129">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="130">
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="189">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8602,35 +8976,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="60" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="190" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="191" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="192" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="193" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="135">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="136">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="137">
+    <cfRule type="colorScale" priority="194">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="195">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="196">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8638,15 +9012,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="138">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="139">
+    <cfRule type="colorScale" priority="197">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="198">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8656,10 +9030,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="56" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="157" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="99">
+    <cfRule type="dataBar" priority="158">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8673,35 +9047,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="55" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="159" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="160" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="161" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="162" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="105">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="106">
+    <cfRule type="colorScale" priority="163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8709,15 +9083,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="108">
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="167">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8727,15 +9101,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="51" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="50" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="146" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="88">
+    <cfRule type="dataBar" priority="147">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8749,35 +9123,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="49" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="148" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="149" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="150" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="151" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="95">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8785,15 +9159,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="97">
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8803,15 +9177,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="44" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="134" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="76">
+    <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8825,35 +9199,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="43" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="136" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="137" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="138" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="139" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="83">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="141">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8861,33 +9235,33 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="39" priority="62" operator="equal">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="74" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="38" priority="63" operator="equal">
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="73" priority="122" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="64">
+    <cfRule type="dataBar" priority="123">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8900,36 +9274,36 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="72" priority="124" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="125" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="126" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="127" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="71">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8937,38 +9311,33 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="33" priority="50" operator="equal">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="68" priority="109" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="32" priority="140" operator="equal">
-      <formula>"cancel"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="31" priority="51" operator="equal">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="66" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="52">
+    <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8981,36 +9350,36 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="30" priority="53" operator="equal">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="65" priority="112" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="113" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="114" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="115" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9018,43 +9387,38 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="61" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="59" priority="84" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="27">
+    <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9068,35 +9432,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="87" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="88" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="89" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="90" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9104,50 +9468,33 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="18" priority="141" operator="equal">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="52" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="142">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{789FC2A6-4C89-44D8-9CCE-14F4A7A119CA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="51" priority="73" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9160,36 +9507,36 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="50" priority="75" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="76" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="77" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="78" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9197,28 +9544,28 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="11" priority="1477" operator="equal">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="46" priority="1536" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1478">
+    <cfRule type="dataBar" priority="1537">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9231,36 +9578,36 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="10" priority="1479" operator="equal">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="45" priority="1538" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1480" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1539" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1481" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1540" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1482" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1541" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="1483">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1484">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1485">
+    <cfRule type="colorScale" priority="1542">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1543">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1544">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9268,33 +9615,33 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1486">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1487">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="colorScale" priority="1545">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1546">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="41" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="40" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9307,7 +9654,235 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="39" priority="63" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="64" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="40" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="41" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="42" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="22" priority="36" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="21" priority="37" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="38">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7131B2E7-CDCA-4D6C-A57B-5ABA99C1FE29}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{284DCEA2-548D-4480-86C1-AE8B5D82E6F6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{609C3009-B9E0-46E2-897C-75E2624C113D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
@@ -9362,13 +9937,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H13" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H15">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B13" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B15">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D15">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9386,7 +9961,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H14:H1048576</xm:sqref>
+          <xm:sqref>H16:H1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4B6D4E27-1CF7-47DA-9B80-F680219B10C6}">
@@ -9441,7 +10016,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8</xm:sqref>
+          <xm:sqref>H10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{42D94F03-FC15-42D9-90D9-0D834F66AC62}">
@@ -9452,7 +10027,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H10</xm:sqref>
+          <xm:sqref>H12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3370FDA2-02DE-44A0-8BA4-2704757E9C21}">
@@ -9466,17 +10041,6 @@
           <xm:sqref>H6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{789FC2A6-4C89-44D8-9CCE-14F4A7A119CA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9A315D70-FADC-49E0-A04F-9A0055B0B92E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -9485,7 +10049,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H12</xm:sqref>
+          <xm:sqref>H14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CF30E24B-749D-445A-ABF1-D3E12EAF25FA}">
@@ -9496,10 +10060,21 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H11</xm:sqref>
+          <xm:sqref>H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="109" operator="equal" id="{17615FE7-B548-414A-900F-EB2D2B5E0D8B}">
+          <x14:cfRule type="dataBar" id="{CF6208A7-9BEA-47AF-A004-82315FE1B266}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="168" operator="equal" id="{17615FE7-B548-414A-900F-EB2D2B5E0D8B}">
             <xm:f>'C:\2016\工作汇报\周报\12月第5周\[技术平台开发组周报20161223---郑惠娜.xlsx]李国辉'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -9512,7 +10087,7 @@
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CF6208A7-9BEA-47AF-A004-82315FE1B266}">
+          <x14:cfRule type="dataBar" id="{7131B2E7-CDCA-4D6C-A57B-5ABA99C1FE29}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9520,7 +10095,29 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H13</xm:sqref>
+          <xm:sqref>H8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{284DCEA2-548D-4480-86C1-AE8B5D82E6F6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{609C3009-B9E0-46E2-897C-75E2624C113D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H11</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{46CE7ABD-6A9A-4AF2-82C6-43105B81695C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0416" sheetId="6" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="134">
   <si>
     <t>组别</t>
   </si>
@@ -385,23 +384,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文档编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初版Ui设计稿完成，正在整改；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对业务熟悉+UI设计第二稿评审</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将DDC模块加入，待完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已测试完成，走ECN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -410,15 +393,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘善翼/李贯涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>协助自测QA3.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C620病理模式整改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术开发</t>
+  </si>
+  <si>
+    <t>结合方案二里程碑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/5/16；
+2018/5/9评审客户端和web端UI草图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐海明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上周完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/5/8,开始自测；2018/5/10自测完成
+2018/5/8号 C620病理模式自测，2018/5/10自测，代码review完成
+3.04版本 5/11号提测
+导入理邦 新协议，5/9日前完成-徐海明，联调-5/11-张颖燕
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3DLUT 优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐海明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/5/4前到展厅定位84问题
+CGA2S1.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -431,23 +459,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3DLUT 优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术开发</t>
-  </si>
-  <si>
-    <t>结合方案二里程碑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和测试组协调用已发布版本兼容并轨机型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/5/16；
-2018/5/9评审客户端和web端UI草图</t>
+    <t>张颖燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产者2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/8日提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义曲线 自动化生产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴吕清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDC TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已立项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/8 培训完成迈瑞程序下载机制，5/11联调完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴吕清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEBQA2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已测试完成，走ECN，
+王海问题沟通和进一步计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和测试组协调用已发布版本兼容并轨机型5/8号之前，沟通测试8420&amp;9810时间，ECN变更范围协调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牟升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonitorApi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将DDC 控制通路 移植，并验证完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEBQA3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面客户端原型设计完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -455,17 +532,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>徐海明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/5/4前到展厅定位84问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/5/4,开始自测；2018/5/6自测完成，待3.03测试完成后一起升级；
-2018/5/8号 C620病理模式
-</t>
+    <t>王文鼎/吴吕清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便携显示器插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对业务熟悉+UI设计第二稿评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -477,37 +556,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2018/5/7文档编写完成文档编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院调研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘善翼/李贯涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>RC8610 System二期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018/5/7文档编写完成文档编写</t>
+    <t>文档编写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>刘善翼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已立项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院调研。
-NISIRC8610 服务与客户端程序打包可安装 2018/5/11----李贯涛
-NISIRC8610 守护进程开发 2018/5/9----李贯涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档编写。
-RC8610 细节调整与已发现的BUG修复。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -616,7 +696,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -847,36 +927,10 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -894,7 +948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1064,38 +1118,11 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1109,16 +1136,62 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 3 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 2 2" xfId="1"/>
+    <cellStyle name="常规 2 3" xfId="3"/>
+    <cellStyle name="常规 3 2" xfId="2"/>
+    <cellStyle name="常规 3 2 2" xfId="4"/>
   </cellStyles>
-  <dxfs count="279">
+  <dxfs count="294">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1127,6 +1200,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1215,6 +1309,43 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -1222,6 +1353,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1266,6 +1404,50 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -1273,6 +1455,43 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -1280,6 +1499,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1320,78 +1553,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1600,6 +1761,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3523,9 +3691,9 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="278"/>
-      <tableStyleElement type="headerRow" dxfId="277"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="293"/>
+      <tableStyleElement type="headerRow" dxfId="292"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3633,23 +3801,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3685,23 +3836,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3877,7 +4011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -3902,36 +4036,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -4264,14 +4398,14 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="J3:J12"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="276" priority="1184" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="1184" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1185">
@@ -4288,16 +4422,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="275" priority="1186" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="1186" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="1187" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="1187" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="1188" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="1188" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="1189" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="1189" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1190">
@@ -4356,16 +4490,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="271" priority="1423" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="1423" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="1424" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="1424" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="1425" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="1425" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="1426" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="1426" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1427">
@@ -4410,16 +4544,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="267" priority="1454" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="1454" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="1455" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="1455" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="1456" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="1456" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="1457" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="1457" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1458">
@@ -4464,7 +4598,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="263" priority="826" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="826" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="827">
@@ -4481,16 +4615,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="262" priority="828" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="828" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="829" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="829" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="830" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="831" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="831" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="832">
@@ -4535,12 +4669,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="258" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="232" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="257" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="233" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="234">
@@ -4557,16 +4691,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="256" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="235" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="236" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="237" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="238" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="239">
@@ -4611,12 +4745,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="252" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="231" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="251" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="244" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="245">
@@ -4633,16 +4767,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="250" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="246" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="247" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="248" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="249" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="250">
@@ -4687,12 +4821,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="246" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="144" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="245" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="146">
@@ -4709,16 +4843,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="244" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="147" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="148" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="149" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="150" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="151">
@@ -4763,12 +4897,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="240" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="239" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -4785,16 +4919,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="238" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -4839,12 +4973,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="234" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="233" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -4861,16 +4995,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="232" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -4915,12 +5049,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="228" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="227" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -4937,16 +5071,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="226" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -4991,12 +5125,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="222" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="221" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -5013,16 +5147,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="220" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -5067,12 +5201,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="216" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="215" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -5089,16 +5223,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="214" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -5143,12 +5277,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="210" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="209" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -5165,16 +5299,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="208" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5219,13 +5353,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5386,7 +5520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -5411,36 +5545,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -5767,14 +5901,14 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="J3:J12"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="203" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -5791,16 +5925,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="202" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -5859,16 +5993,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="198" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -5913,16 +6047,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="194" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -5967,7 +6101,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="190" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -5984,16 +6118,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="189" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -6038,12 +6172,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="185" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="184" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -6060,16 +6194,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="183" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -6114,12 +6248,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="179" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="178" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="111">
@@ -6136,16 +6270,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="177" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="112" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="113" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="114" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="115" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -6190,12 +6324,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="173" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="172" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -6212,16 +6346,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="171" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -6266,12 +6400,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="167" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="166" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -6288,16 +6422,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="165" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -6342,12 +6476,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="161" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="160" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -6364,16 +6498,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="159" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -6418,12 +6552,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="155" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="154" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -6440,16 +6574,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="153" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -6494,12 +6628,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="149" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="148" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">
@@ -6516,16 +6650,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="147" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="28" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="29" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="30" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="31" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -6570,12 +6704,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="143" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="142" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -6592,16 +6726,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="141" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6646,12 +6780,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="137" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="136" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -6668,16 +6802,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="135" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6722,13 +6856,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6889,7 +7023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -6914,36 +7048,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -7200,14 +7334,14 @@
       <c r="L10" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J10" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="J3:J10"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="130" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -7224,16 +7358,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -7292,16 +7426,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="125" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -7346,16 +7480,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="121" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -7400,7 +7534,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="117" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -7417,16 +7551,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="116" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -7471,12 +7605,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="112" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="111" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -7493,16 +7627,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="110" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -7547,12 +7681,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="106" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="105" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -7569,16 +7703,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="104" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -7623,12 +7757,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="100" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="99" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -7645,16 +7779,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="98" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -7699,21 +7833,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="94" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="93" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="163" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="163" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="163" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="163" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="163">
@@ -7758,7 +7892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="89" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -7775,16 +7909,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="88" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -7829,12 +7963,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="84" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="83" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -7851,16 +7985,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="82" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -7905,17 +8039,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="78" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -7932,16 +8066,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="75" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -7986,7 +8120,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="71" priority="1463" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="1463" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1464">
@@ -8003,13 +8137,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8148,11 +8282,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8172,71 +8306,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="55" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G3" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -8250,13 +8384,13 @@
         <v>16</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>13</v>
@@ -8278,10 +8412,10 @@
         <v>97</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
@@ -8289,7 +8423,7 @@
         <v>13</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
@@ -8302,16 +8436,16 @@
         <v>48</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G6" s="47" t="s">
         <v>77</v>
@@ -8320,12 +8454,12 @@
         <v>13</v>
       </c>
       <c r="I6" s="43" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -8339,80 +8473,75 @@
         <v>11</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H7" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="46">
-        <v>43225</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="37" t="s">
+      <c r="E8" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="47"/>
+      <c r="H8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="38"/>
+      <c r="I8" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
     </row>
     <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="46">
-        <v>43226</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="23" t="s">
+      <c r="B9" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="H9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="53"/>
+      <c r="I9" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="64"/>
+      <c r="K9" s="65"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
@@ -8422,28 +8551,28 @@
         <v>48</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="46">
+        <v>43225</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="30"/>
+        <v>115</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -8452,120 +8581,162 @@
       <c r="B11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>27</v>
+      <c r="C11" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>11</v>
       </c>
       <c r="E11" s="46">
-        <v>43232</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>88</v>
-      </c>
+        <v>43226</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="26"/>
       <c r="H11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="31"/>
+      <c r="I11" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>107</v>
+        <v>48</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>118</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>112</v>
+      <c r="E12" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="31"/>
+      <c r="I12" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="61">
-        <v>43227</v>
-      </c>
-      <c r="F13" s="51" t="s">
+      <c r="B13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="46">
+        <v>43232</v>
+      </c>
+      <c r="F13" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="23" t="s">
+      <c r="G13" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="63"/>
+      <c r="I13" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:11" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="67"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="66"/>
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="31"/>
     </row>
-    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="58"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="58"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="46">
+        <v>43227</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="K15" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="I3:I11" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="I3:I11"/>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H15:H1048576">
-    <cfRule type="cellIs" dxfId="69" priority="110" operator="equal">
+  <conditionalFormatting sqref="H16:H1048576">
+    <cfRule type="cellIs" dxfId="84" priority="253" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="111">
+    <cfRule type="dataBar" priority="254">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8578,36 +8749,36 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H1048576">
-    <cfRule type="cellIs" dxfId="68" priority="112" operator="equal">
+  <conditionalFormatting sqref="H16:H1048576">
+    <cfRule type="cellIs" dxfId="83" priority="255" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="256" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="257" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="258" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="118">
+    <cfRule type="colorScale" priority="259">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="260">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="261">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8615,15 +8786,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="120">
+    <cfRule type="colorScale" priority="262">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="263">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8633,7 +8804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="dataBar" priority="121">
+    <cfRule type="dataBar" priority="264">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8647,35 +8818,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="64" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="265" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="266" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="267" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="268" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="126">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="127">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="128">
+    <cfRule type="colorScale" priority="269">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="270">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="271">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8683,15 +8854,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="129">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="130">
+    <cfRule type="colorScale" priority="272">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="273">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8701,35 +8872,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="60" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="274" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="275" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="276" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="277" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="135">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="136">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="137">
+    <cfRule type="colorScale" priority="278">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="279">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8737,15 +8908,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="138">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="139">
+    <cfRule type="colorScale" priority="281">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="282">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8755,10 +8926,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="56" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="122" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="99">
+    <cfRule type="dataBar" priority="123">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8766,41 +8937,41 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EC8488D1-173B-4A27-BB53-65C0D22F7A0D}</x14:id>
+          <x14:id>{8397E146-1BBE-471C-84B5-E8D8D1E59827}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="55" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="124" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="125" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="126" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="127" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="105">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="106">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8808,15 +8979,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="108">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8826,15 +8997,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="51" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="50" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="111" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="88">
+    <cfRule type="dataBar" priority="112">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8842,41 +9013,41 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AFA32415-FA4C-479C-8344-6738D2F58FE6}</x14:id>
+          <x14:id>{348D28E9-6BF5-4970-9EE9-0500AB0DEF41}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="49" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="113" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="114" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="115" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="116" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="95">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8884,15 +9055,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="97">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8902,15 +9073,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="44" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="76">
+    <cfRule type="dataBar" priority="100">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8918,41 +9089,41 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CB58238C-58DD-42A7-9AD4-298F56B3ECBD}</x14:id>
+          <x14:id>{48D38D18-FDB7-422F-A7EA-D3FE9044DEF0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="43" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="83">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8960,33 +9131,33 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="39" priority="62" operator="equal">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="53" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="38" priority="63" operator="equal">
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="52" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="64">
+    <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8994,41 +9165,41 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{15B4A003-52C7-4E49-B1CF-453BF8A337A2}</x14:id>
+          <x14:id>{376CD2E4-2EF7-4A97-BCAF-BED2AF13D832}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="51" priority="89" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="90" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="91" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="92" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="71">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9036,38 +9207,33 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="33" priority="50" operator="equal">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="47" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="32" priority="140" operator="equal">
-      <formula>"cancel"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="31" priority="51" operator="equal">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="46" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="52">
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9075,41 +9241,41 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{42D94F03-FC15-42D9-90D9-0D834F66AC62}</x14:id>
+          <x14:id>{CEDCE37D-A68B-4189-AFAA-EF91B3D10DBE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="30" priority="53" operator="equal">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="45" priority="77" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="78" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="79" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="80" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9117,43 +9283,38 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="41" priority="73" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="40" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="27">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9161,41 +9322,41 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3370FDA2-02DE-44A0-8BA4-2704757E9C21}</x14:id>
+          <x14:id>{EBC5FE6E-D621-439F-900C-62B64CDB69CD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="64" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="67" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9203,28 +9364,33 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="18" priority="141" operator="equal">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="34" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="142">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="33" priority="50" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9232,21 +9398,70 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{789FC2A6-4C89-44D8-9CCE-14F4A7A119CA}</x14:id>
+          <x14:id>{2CA5EBF3-A597-48EC-AF22-9ED2C83EB40C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="32" priority="52" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="53" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="54" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="28" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9254,41 +9469,41 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9A315D70-FADC-49E0-A04F-9A0055B0B92E}</x14:id>
+          <x14:id>{32995031-0A2E-4B14-90D1-5A6A399F8440}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="27" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9296,28 +9511,33 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="11" priority="1477" operator="equal">
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="23" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1478">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="22" priority="38" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9325,41 +9545,41 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CF30E24B-749D-445A-ABF1-D3E12EAF25FA}</x14:id>
+          <x14:id>{9DD60689-6BB4-4E23-9F7F-B0D80FD5E970}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="10" priority="1479" operator="equal">
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="21" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1480" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1481" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1482" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="1483">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1484">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1485">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9367,33 +9587,87 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1486">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1487">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H14">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="29" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="30" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="31" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="13" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H14">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9401,24 +9675,122 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CF6208A7-9BEA-47AF-A004-82315FE1B266}</x14:id>
+          <x14:id>{C177F705-4C96-496D-AA14-389C90E0E74B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H14">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F72F0C68-99A2-48B5-97C9-D3025D3085DA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3C631109-79B2-45F4-8CA5-4F454E86DD40}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -9461,13 +9833,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H15">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B16" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B15 B4:B8">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D15">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9485,7 +9857,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H15:H1048576</xm:sqref>
+          <xm:sqref>H16:H1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4B6D4E27-1CF7-47DA-9B80-F680219B10C6}">
@@ -9499,117 +9871,7 @@
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EC8488D1-173B-4A27-BB53-65C0D22F7A0D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AFA32415-FA4C-479C-8344-6738D2F58FE6}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H4:H5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CB58238C-58DD-42A7-9AD4-298F56B3ECBD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{15B4A003-52C7-4E49-B1CF-453BF8A337A2}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{42D94F03-FC15-42D9-90D9-0D834F66AC62}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3370FDA2-02DE-44A0-8BA4-2704757E9C21}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{789FC2A6-4C89-44D8-9CCE-14F4A7A119CA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9A315D70-FADC-49E0-A04F-9A0055B0B92E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CF30E24B-749D-445A-ABF1-D3E12EAF25FA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CF6208A7-9BEA-47AF-A004-82315FE1B266}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H13:H14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="109" operator="equal" id="{17615FE7-B548-414A-900F-EB2D2B5E0D8B}">
+          <x14:cfRule type="cellIs" priority="252" operator="equal" id="{17615FE7-B548-414A-900F-EB2D2B5E0D8B}">
             <xm:f>'C:\2016\工作汇报\周报\12月第5周\[技术平台开发组周报20161223---郑惠娜.xlsx]李国辉'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -9621,6 +9883,138 @@
           </x14:cfRule>
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8397E146-1BBE-471C-84B5-E8D8D1E59827}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{348D28E9-6BF5-4970-9EE9-0500AB0DEF41}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H4:H5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{48D38D18-FDB7-422F-A7EA-D3FE9044DEF0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{376CD2E4-2EF7-4A97-BCAF-BED2AF13D832}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CEDCE37D-A68B-4189-AFAA-EF91B3D10DBE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EBC5FE6E-D621-439F-900C-62B64CDB69CD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2CA5EBF3-A597-48EC-AF22-9ED2C83EB40C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{32995031-0A2E-4B14-90D1-5A6A399F8440}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9DD60689-6BB4-4E23-9F7F-B0D80FD5E970}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C177F705-4C96-496D-AA14-389C90E0E74B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F72F0C68-99A2-48B5-97C9-D3025D3085DA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3C631109-79B2-45F4-8CA5-4F454E86DD40}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H11</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CE099FCF-CC0F-4EEC-96EA-EDE8DF8B0496}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0416" sheetId="6" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="130">
   <si>
     <t>组别</t>
   </si>
@@ -548,10 +549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RC8610 System一期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -560,34 +557,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文档编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院调研</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刘善翼/李贯涛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RC8610 System二期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘善翼</t>
+    <t>文档编写
+RC8610 细节调整与已发现的BUG修复——李贯涛
+测试系统所需的硬件和网络环境——刘善翼
+修复录制功能内存泄漏的问题——刘善翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院调研
+NISIRC8610 服务与客户端程序打包可安装 2018/5/11----李贯涛
+NISIRC8610 守护进程开发 2018/5/9----李贯涛
+小鱼和vidyo产品调研、演示、试用——刘善翼
+其他1080P会议终端调研——刘善翼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1124,6 +1116,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1136,25 +1137,125 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="常规 2 2" xfId="1"/>
-    <cellStyle name="常规 2 3" xfId="3"/>
-    <cellStyle name="常规 3 2" xfId="2"/>
-    <cellStyle name="常规 3 2 2" xfId="4"/>
+    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 3 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="294">
+  <dxfs count="306">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1761,13 +1862,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3691,9 +3785,9 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="293"/>
-      <tableStyleElement type="headerRow" dxfId="292"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="305"/>
+      <tableStyleElement type="headerRow" dxfId="304"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3801,6 +3895,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3836,6 +3947,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4011,7 +4139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -4036,36 +4164,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -4398,14 +4526,14 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12"/>
+  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="291" priority="1184" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="1184" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1185">
@@ -4422,16 +4550,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="290" priority="1186" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="1186" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="1187" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="1187" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="1188" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="1188" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="1189" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="1189" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1190">
@@ -4490,16 +4618,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="286" priority="1423" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="1423" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="1424" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="1424" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="1425" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="1425" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="1426" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="1426" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1427">
@@ -4544,16 +4672,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="282" priority="1454" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="1454" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="1455" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="1455" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="1456" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="1456" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="1457" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="1457" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1458">
@@ -4598,7 +4726,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="278" priority="826" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="826" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="827">
@@ -4615,16 +4743,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="277" priority="828" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="828" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="829" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="829" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="830" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="831" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="831" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="832">
@@ -4669,12 +4797,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="273" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="232" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="272" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="233" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="234">
@@ -4691,16 +4819,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="271" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="235" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="236" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="237" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="238" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="239">
@@ -4745,12 +4873,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="267" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="231" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="266" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="244" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="245">
@@ -4767,16 +4895,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="265" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="246" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="247" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="248" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="249" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="250">
@@ -4821,12 +4949,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="261" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="144" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="260" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="146">
@@ -4843,16 +4971,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="259" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="147" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="148" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="149" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="150" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="151">
@@ -4897,12 +5025,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="255" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="254" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -4919,16 +5047,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="253" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -4973,12 +5101,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="249" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="248" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -4995,16 +5123,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="247" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -5049,12 +5177,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="243" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="242" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -5071,16 +5199,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="241" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -5125,12 +5253,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="237" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="236" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -5147,16 +5275,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="235" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -5201,12 +5329,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="231" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="230" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -5223,16 +5351,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="229" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -5277,12 +5405,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="225" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="224" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -5299,16 +5427,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="223" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5353,13 +5481,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5520,7 +5648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -5545,36 +5673,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -5901,14 +6029,14 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12"/>
+  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="218" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -5925,16 +6053,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="217" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -5993,16 +6121,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="213" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -6047,16 +6175,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="209" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -6101,7 +6229,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="205" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -6118,16 +6246,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="204" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -6172,12 +6300,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="200" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="199" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -6194,16 +6322,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="198" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -6248,12 +6376,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="194" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="193" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="111">
@@ -6270,16 +6398,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="192" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="112" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="113" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="114" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="115" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -6324,12 +6452,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="188" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="187" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -6346,16 +6474,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="186" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -6400,12 +6528,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="182" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="181" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -6422,16 +6550,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="180" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -6476,12 +6604,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="176" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="175" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -6498,16 +6626,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="174" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -6552,12 +6680,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="170" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="169" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -6574,16 +6702,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="168" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -6628,12 +6756,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="164" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="163" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">
@@ -6650,16 +6778,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="162" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="28" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="29" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="30" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="31" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -6704,12 +6832,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="158" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="157" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -6726,16 +6854,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="156" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6780,12 +6908,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="152" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="151" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -6802,16 +6930,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="150" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6856,13 +6984,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7023,7 +7151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -7048,36 +7176,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -7334,14 +7462,14 @@
       <c r="L10" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J10"/>
+  <autoFilter ref="J3:J10" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="145" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -7358,16 +7486,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="144" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -7426,16 +7554,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="140" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -7480,16 +7608,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="136" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -7534,7 +7662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="132" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -7551,16 +7679,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="131" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -7605,12 +7733,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="127" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="126" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -7627,16 +7755,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="125" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -7681,12 +7809,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="121" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="120" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -7703,16 +7831,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="119" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -7757,12 +7885,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="115" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="114" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -7779,16 +7907,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="113" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -7833,21 +7961,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="109" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="108" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="163" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="163" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="163" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="163" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="163">
@@ -7892,7 +8020,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="104" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -7909,16 +8037,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="103" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -7963,12 +8091,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="99" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="98" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -7985,16 +8113,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="97" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -8039,17 +8167,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="93" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="92" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="91" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -8066,16 +8194,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="90" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -8120,7 +8248,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="86" priority="1463" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="1463" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1464">
@@ -8137,13 +8265,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8282,11 +8410,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G13" sqref="G12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8306,37 +8434,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="48" t="s">
@@ -8514,8 +8642,8 @@
       <c r="I8" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61"/>
     </row>
     <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -8540,8 +8668,8 @@
       <c r="I9" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="61"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
@@ -8665,21 +8793,21 @@
       <c r="J13" s="22"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="132" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="45" t="s">
         <v>125</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>126</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>128</v>
@@ -8691,52 +8819,23 @@
         <v>13</v>
       </c>
       <c r="I14" s="49" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="31"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
-        <v>12</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="46">
-        <v>43227</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="31"/>
-    </row>
   </sheetData>
-  <autoFilter ref="I3:I11"/>
+  <autoFilter ref="I3:I11" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H16:H1048576">
-    <cfRule type="cellIs" dxfId="84" priority="253" operator="equal">
+  <conditionalFormatting sqref="H15:H1048576">
+    <cfRule type="cellIs" dxfId="96" priority="265" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="254">
+    <cfRule type="dataBar" priority="266">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8749,36 +8848,36 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H1048576">
-    <cfRule type="cellIs" dxfId="83" priority="255" operator="equal">
+  <conditionalFormatting sqref="H15:H1048576">
+    <cfRule type="cellIs" dxfId="95" priority="267" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="268" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="269" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="270" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="259">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="260">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="261">
+    <cfRule type="colorScale" priority="271">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="272">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="273">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8786,15 +8885,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="262">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="263">
+    <cfRule type="colorScale" priority="274">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="275">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8804,7 +8903,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="dataBar" priority="264">
+    <cfRule type="dataBar" priority="276">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8818,35 +8917,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="79" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="277" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="278" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="279" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="280" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="269">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="270">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="271">
+    <cfRule type="colorScale" priority="281">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="282">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="283">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8854,15 +8953,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="272">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="273">
+    <cfRule type="colorScale" priority="284">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="285">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8872,35 +8971,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="75" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="286" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="287" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="288" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="289" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="278">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="279">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="280">
+    <cfRule type="colorScale" priority="290">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="291">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="292">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8908,15 +9007,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="281">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="282">
+    <cfRule type="colorScale" priority="293">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="294">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8926,10 +9025,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="70" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="134" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="123">
+    <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8943,35 +9042,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="69" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="136" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="137" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="138" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="139" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="128">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="129">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="130">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="141">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8979,15 +9078,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="131">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="132">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8997,15 +9096,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="65" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="122" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="64" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="123" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="112">
+    <cfRule type="dataBar" priority="124">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9019,35 +9118,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="63" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="125" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="126" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="127" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="128" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="119">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9055,15 +9154,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="120">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="121">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9073,15 +9172,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="59" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="58" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="111" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="100">
+    <cfRule type="dataBar" priority="112">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9095,35 +9194,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="57" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="113" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="114" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="115" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="116" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="105">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="107">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9131,15 +9230,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="109">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9149,15 +9248,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="53" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="52" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="88">
+    <cfRule type="dataBar" priority="100">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9171,35 +9270,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="51" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="95">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9207,15 +9306,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="97">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9225,15 +9324,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="47" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="46" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="76">
+    <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9247,35 +9346,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="45" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="89" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="90" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="91" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="92" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="83">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9283,15 +9382,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="85">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9301,20 +9400,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="41" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="40" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="73" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="39" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="63">
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9328,35 +9427,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="38" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="70">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9364,104 +9463,28 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="34" priority="49" operator="equal">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="41" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="33" priority="50" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="51">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2CA5EBF3-A597-48EC-AF22-9ED2C83EB40C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="32" priority="52" operator="equal">
-      <formula>"cancel"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="53" operator="equal">
-      <formula>"ongoing"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="54" operator="equal">
-      <formula>"close"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
-      <formula>"delay"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="28" priority="133" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="134">
+    <cfRule type="dataBar" priority="146">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9475,35 +9498,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="27" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="147" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="148" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="149" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="150" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="139">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="140">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="141">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="153">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9511,163 +9534,87 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="142">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="143">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="23" priority="37" operator="equal">
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="43" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="22" priority="38" operator="equal">
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9DD60689-6BB4-4E23-9F7F-B0D80FD5E970}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="21" priority="40" operator="equal">
-      <formula>"cancel"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="41" operator="equal">
-      <formula>"ongoing"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="42" operator="equal">
-      <formula>"close"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="43" operator="equal">
-      <formula>"delay"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
-      <formula>"cancel"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="29" operator="equal">
-      <formula>"ongoing"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="30" operator="equal">
-      <formula>"close"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="31" operator="equal">
-      <formula>"delay"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="13" priority="25" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9681,35 +9628,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9717,15 +9664,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9735,15 +9682,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9757,15 +9704,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9779,6 +9726,82 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{59AB2B29-B58C-46BF-9885-E2FCBEC2FC3E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
@@ -9833,13 +9856,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B15 B4:B8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9857,7 +9880,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H16:H1048576</xm:sqref>
+          <xm:sqref>H15:H1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4B6D4E27-1CF7-47DA-9B80-F680219B10C6}">
@@ -9867,19 +9890,6 @@
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H1</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="252" operator="equal" id="{17615FE7-B548-414A-900F-EB2D2B5E0D8B}">
-            <xm:f>'C:\2016\工作汇报\周报\12月第5周\[技术平台开发组周报20161223---郑惠娜.xlsx]李国辉'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFFF00"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
           </x14:cfRule>
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
@@ -9950,17 +9960,6 @@
           <xm:sqref>H6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2CA5EBF3-A597-48EC-AF22-9ED2C83EB40C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{32995031-0A2E-4B14-90D1-5A6A399F8440}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -9970,17 +9969,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>H13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9DD60689-6BB4-4E23-9F7F-B0D80FD5E970}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C177F705-4C96-496D-AA14-389C90E0E74B}">
@@ -10015,6 +10003,30 @@
           </x14:cfRule>
           <xm:sqref>H11</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="264" operator="equal" id="{17615FE7-B548-414A-900F-EB2D2B5E0D8B}">
+            <xm:f>'C:\2016\工作汇报\周报\12月第5周\[技术平台开发组周报20161223---郑惠娜.xlsx]李国辉'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{59AB2B29-B58C-46BF-9885-E2FCBEC2FC3E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H14</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CE099FCF-CC0F-4EEC-96EA-EDE8DF8B0496}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4497C68F-E012-423A-85B7-BDB70D0FDFE5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,11 +568,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>医院调研
+    <t xml:space="preserve">医院调研
 NISIRC8610 服务与客户端程序打包可安装 2018/5/11----李贯涛
 NISIRC8610 守护进程开发 2018/5/9----李贯涛
 小鱼和vidyo产品调研、演示、试用——刘善翼
-其他1080P会议终端调研——刘善翼</t>
+其他1080P会议终端调研——刘善翼  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1146,7 +1146,14 @@
     <cellStyle name="常规 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="常规 3 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="306">
+  <dxfs count="288">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1257,6 +1264,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1308,250 +1322,83 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3786,8 +3633,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="305"/>
-      <tableStyleElement type="headerRow" dxfId="304"/>
+      <tableStyleElement type="wholeTable" dxfId="287"/>
+      <tableStyleElement type="headerRow" dxfId="286"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4533,7 +4380,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="303" priority="1184" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="1184" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1185">
@@ -4550,16 +4397,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="302" priority="1186" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="1186" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="1187" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="1187" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="1188" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="1188" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="1189" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="1189" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1190">
@@ -4618,16 +4465,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="298" priority="1423" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="1423" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="1424" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="1424" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="1425" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="1425" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="1426" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="1426" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1427">
@@ -4672,16 +4519,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="294" priority="1454" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="1454" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="1455" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="1455" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="1456" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="1456" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="1457" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="1457" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1458">
@@ -4726,7 +4573,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="290" priority="826" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="826" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="827">
@@ -4743,16 +4590,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="289" priority="828" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="828" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="829" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="829" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="830" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="831" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="831" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="832">
@@ -4797,12 +4644,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="285" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="232" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="284" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="233" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="234">
@@ -4819,16 +4666,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="283" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="235" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="236" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="237" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="238" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="239">
@@ -4873,12 +4720,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="279" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="231" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="278" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="244" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="245">
@@ -4895,16 +4742,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="277" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="246" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="247" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="248" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="249" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="250">
@@ -4949,12 +4796,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="273" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="144" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="272" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="146">
@@ -4971,16 +4818,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="271" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="147" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="148" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="149" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="150" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="151">
@@ -5025,12 +4872,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="267" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="266" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -5047,16 +4894,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="265" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -5101,12 +4948,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="261" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="260" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -5123,16 +4970,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="259" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -5177,12 +5024,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="255" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="254" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -5199,16 +5046,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="253" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -5253,12 +5100,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="249" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="248" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -5275,16 +5122,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="247" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -5329,12 +5176,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="243" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="242" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -5351,16 +5198,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="241" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -5405,12 +5252,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="237" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="236" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -5427,16 +5274,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="235" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6036,7 +5883,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="230" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -6053,16 +5900,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="229" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -6121,16 +5968,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="225" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -6175,16 +6022,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="221" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -6229,7 +6076,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="217" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -6246,16 +6093,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="216" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -6300,12 +6147,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="212" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="211" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -6322,16 +6169,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="210" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -6376,12 +6223,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="206" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="205" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="111">
@@ -6398,16 +6245,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="204" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="112" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="113" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="114" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="115" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -6452,12 +6299,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="200" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="199" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -6474,16 +6321,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="198" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -6528,12 +6375,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="194" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="193" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -6550,16 +6397,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="192" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -6604,12 +6451,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="188" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="187" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -6626,16 +6473,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="186" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -6680,12 +6527,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="182" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="181" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -6702,16 +6549,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="180" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -6756,12 +6603,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="176" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="175" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">
@@ -6778,16 +6625,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="174" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="28" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="29" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="30" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="31" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -6832,12 +6679,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="170" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="169" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -6854,16 +6701,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="168" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6908,12 +6755,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="164" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="163" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -6930,16 +6777,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="162" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -7469,7 +7316,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="157" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -7486,16 +7333,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="156" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -7554,16 +7401,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="152" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -7608,16 +7455,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="148" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -7662,7 +7509,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="144" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -7679,16 +7526,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="143" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -7733,12 +7580,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="139" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="138" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -7755,16 +7602,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="137" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -7809,12 +7656,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="133" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="132" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -7831,16 +7678,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="131" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -7885,12 +7732,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="127" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="126" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -7907,16 +7754,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="125" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -7961,21 +7808,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="121" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="120" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="163" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="163" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="163" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="163" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="163">
@@ -8020,7 +7867,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="116" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -8037,16 +7884,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="115" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -8091,12 +7938,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="111" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="110" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -8113,16 +7960,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="109" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -8167,17 +8014,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="105" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="104" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="103" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -8194,16 +8041,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="102" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -8248,7 +8095,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="98" priority="1463" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="1463" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1464">
@@ -8413,8 +8260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G12:G13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8832,7 +8679,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H15:H1048576">
-    <cfRule type="cellIs" dxfId="96" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="265" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="266">
@@ -8849,16 +8696,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H1048576">
-    <cfRule type="cellIs" dxfId="95" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="267" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="268" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="269" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="270" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="271">
@@ -8917,16 +8764,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="91" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="277" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="278" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="279" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="280" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="281">
@@ -8971,16 +8818,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="87" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="286" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="287" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="288" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="289" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="290">
@@ -9025,7 +8872,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="83" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="134" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="135">
@@ -9042,16 +8889,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="82" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="136" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="137" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="138" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="139" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="140">
@@ -9096,12 +8943,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="78" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="122" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="77" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="123" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="124">
@@ -9118,16 +8965,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="76" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="125" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="126" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="127" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="128" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="129">
@@ -9172,12 +9019,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="72" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="71" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="111" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="112">
@@ -9194,16 +9041,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="70" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="113" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="114" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="115" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="116" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="117">
@@ -9248,12 +9095,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="66" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="65" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -9270,16 +9117,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="64" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -9324,12 +9171,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="60" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="59" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="88">
@@ -9346,16 +9193,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="58" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="89" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="90" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="91" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="92" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="93">
@@ -9400,17 +9247,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="54" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="53" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="73" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="52" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -9427,16 +9274,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="51" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -9481,7 +9328,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="41" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="146">
@@ -9498,16 +9345,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="40" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="147" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="148" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="149" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="150" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="151">
@@ -9552,16 +9399,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -9606,12 +9453,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -9628,16 +9475,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="29" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="30" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="31" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -9682,12 +9529,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">
@@ -9704,12 +9551,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -9726,16 +9573,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -9780,12 +9627,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -9802,16 +9649,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -10004,6 +9851,17 @@
           <xm:sqref>H11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{59AB2B29-B58C-46BF-9885-E2FCBEC2FC3E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="264" operator="equal" id="{17615FE7-B548-414A-900F-EB2D2B5E0D8B}">
             <xm:f>'C:\2016\工作汇报\周报\12月第5周\[技术平台开发组周报20161223---郑惠娜.xlsx]李国辉'!#REF!</xm:f>
             <x14:dxf>
@@ -10016,17 +9874,6 @@
           </x14:cfRule>
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{59AB2B29-B58C-46BF-9885-E2FCBEC2FC3E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H14</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4497C68F-E012-423A-85B7-BDB70D0FDFE5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D6FDEE58-BF6F-45AE-8E4A-109510AF4199}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -572,7 +572,7 @@
 NISIRC8610 服务与客户端程序打包可安装 2018/5/11----李贯涛
 NISIRC8610 守护进程开发 2018/5/9----李贯涛
 小鱼和vidyo产品调研、演示、试用——刘善翼
-其他1080P会议终端调研——刘善翼  </t>
+其他1080P会议终端调研——刘善翼      </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8261,7 +8261,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D6FDEE58-BF6F-45AE-8E4A-109510AF4199}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F1EAB6C5-02D7-48F1-9AE8-870FA2E8317C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0416" sheetId="6" r:id="rId1"/>
@@ -385,10 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初版Ui设计稿完成，正在整改；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提测一版后整改问题；
 未去展厅定位84问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,10 +537,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对业务熟悉+UI设计第二稿评审</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>顾金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -573,6 +565,15 @@
 NISIRC8610 守护进程开发 2018/5/9----李贯涛
 小鱼和vidyo产品调研、演示、试用——刘善翼
 其他1080P会议终端调研——刘善翼      </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、功能已确定，页面需求已经交给工业设计，等待工业设计进行设计。
+2、熟悉不同机型业务，修正框架，撰写功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰写功能，页面好了后再进行页面撰写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3993,24 +3994,24 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
@@ -4026,7 +4027,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
@@ -4042,7 +4043,7 @@
       <c r="K2" s="64"/>
       <c r="L2" s="65"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -4080,7 +4081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -4114,7 +4115,7 @@
       <c r="K4" s="39"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -4148,7 +4149,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -4182,7 +4183,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -4216,7 +4217,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -4250,7 +4251,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -4280,7 +4281,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -4312,7 +4313,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -4342,7 +4343,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -5502,24 +5503,24 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
@@ -5535,7 +5536,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
@@ -5551,7 +5552,7 @@
       <c r="K2" s="64"/>
       <c r="L2" s="65"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -5589,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5623,7 +5624,7 @@
       </c>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5655,7 +5656,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5687,7 +5688,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -5721,7 +5722,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -5751,7 +5752,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -5781,7 +5782,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -5811,7 +5812,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -5843,7 +5844,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -7005,24 +7006,24 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
@@ -7038,7 +7039,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
@@ -7054,7 +7055,7 @@
       <c r="K2" s="64"/>
       <c r="L2" s="65"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -7092,7 +7093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7124,7 +7125,7 @@
       <c r="K4" s="43"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="11" t="s">
         <v>48</v>
@@ -7154,7 +7155,7 @@
       <c r="K5" s="43"/>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -7184,7 +7185,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -7214,7 +7215,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="87.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="87.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="11" t="s">
         <v>48</v>
@@ -7244,7 +7245,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="53"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -7276,7 +7277,7 @@
       <c r="K9" s="16"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -8260,27 +8261,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
@@ -8295,7 +8296,7 @@
       <c r="J1" s="62"/>
       <c r="K1" s="62"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
@@ -8310,7 +8311,7 @@
       <c r="J2" s="64"/>
       <c r="K2" s="65"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
@@ -8327,7 +8328,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" s="48" t="s">
         <v>28</v>
@@ -8345,7 +8346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -8359,13 +8360,13 @@
         <v>16</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="47" t="s">
         <v>88</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>89</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>13</v>
@@ -8376,7 +8377,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -8384,13 +8385,13 @@
         <v>48</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="54" t="s">
         <v>90</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>91</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
@@ -8398,12 +8399,12 @@
         <v>13</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -8411,16 +8412,16 @@
         <v>48</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" s="47" t="s">
         <v>77</v>
@@ -8429,12 +8430,12 @@
         <v>13</v>
       </c>
       <c r="I6" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -8448,22 +8449,22 @@
         <v>11</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H7" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -8471,54 +8472,54 @@
         <v>48</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="47" t="s">
         <v>105</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>106</v>
       </c>
       <c r="G8" s="47"/>
       <c r="H8" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
     </row>
-    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="38.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="E9" s="58" t="s">
         <v>109</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>110</v>
       </c>
       <c r="F9" s="41"/>
       <c r="H9" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J9" s="60"/>
       <c r="K9" s="61"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -8526,7 +8527,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>16</v>
@@ -8535,21 +8536,21 @@
         <v>43225</v>
       </c>
       <c r="F10" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="36" t="s">
         <v>113</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>114</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -8557,7 +8558,7 @@
         <v>48</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>11</v>
@@ -8566,7 +8567,7 @@
         <v>43226</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="19" t="s">
@@ -8578,7 +8579,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="53"/>
     </row>
-    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -8586,30 +8587,30 @@
         <v>48</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>120</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="64.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -8617,7 +8618,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>27</v>
@@ -8626,47 +8627,47 @@
         <v>43232</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" s="41" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="124.8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>128</v>
-      </c>
       <c r="G14" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="31"/>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F1EAB6C5-02D7-48F1-9AE8-870FA2E8317C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0416" sheetId="6" r:id="rId1"/>
     <sheet name="0423" sheetId="8" r:id="rId2"/>
     <sheet name="0503" sheetId="10" r:id="rId3"/>
     <sheet name="0507" sheetId="12" r:id="rId4"/>
+    <sheet name="0512" sheetId="13" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0416'!$J$3:$J$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'0423'!$J$3:$J$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'0503'!$J$3:$J$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'0507'!$I$3:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'0512'!$I$3:$I$11</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="130">
   <si>
     <t>组别</t>
   </si>
@@ -580,7 +581,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1141,13 +1142,13 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 3 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 2 2" xfId="1"/>
+    <cellStyle name="常规 2 3" xfId="3"/>
+    <cellStyle name="常规 3 2" xfId="2"/>
+    <cellStyle name="常规 3 2 2" xfId="4"/>
   </cellStyles>
-  <dxfs count="288">
+  <dxfs count="367">
     <dxf>
       <fill>
         <patternFill>
@@ -1835,6 +1836,43 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -1842,6 +1880,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1895,6 +1940,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1988,6 +2040,43 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -2028,6 +2117,71 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2361,6 +2515,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2412,6 +2573,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2507,13 +2675,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2547,115 +2708,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3610,6 +3662,634 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3633,9 +4313,9 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="287"/>
-      <tableStyleElement type="headerRow" dxfId="286"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="366"/>
+      <tableStyleElement type="headerRow" dxfId="365"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3743,23 +4423,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3795,23 +4458,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3987,31 +4633,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
@@ -4027,7 +4673,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
@@ -4043,7 +4689,7 @@
       <c r="K2" s="64"/>
       <c r="L2" s="65"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -4081,7 +4727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -4115,7 +4761,7 @@
       <c r="K4" s="39"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -4149,7 +4795,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -4183,7 +4829,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -4217,7 +4863,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -4251,7 +4897,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -4281,7 +4927,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -4313,7 +4959,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -4343,7 +4989,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -4374,14 +5020,14 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="J3:J12"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="285" priority="1184" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="1184" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1185">
@@ -4398,16 +5044,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="284" priority="1186" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="1186" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="1187" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="1187" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="1188" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="1188" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="1189" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="1189" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1190">
@@ -4466,16 +5112,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="280" priority="1423" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="1423" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="1424" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="1424" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="1425" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="1425" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="1426" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="1426" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1427">
@@ -4520,16 +5166,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="276" priority="1454" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="1454" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="1455" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="1455" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="1456" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="1456" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="1457" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="1457" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1458">
@@ -4574,7 +5220,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="272" priority="826" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="826" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="827">
@@ -4591,16 +5237,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="271" priority="828" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="828" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="829" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="829" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="830" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="831" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="831" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="832">
@@ -4645,12 +5291,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="267" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="232" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="266" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="233" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="234">
@@ -4667,16 +5313,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="265" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="235" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="236" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="237" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="238" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="239">
@@ -4721,12 +5367,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="261" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="231" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="260" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="244" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="245">
@@ -4743,16 +5389,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="259" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="246" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="247" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="248" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="249" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="250">
@@ -4797,12 +5443,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="255" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="144" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="254" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="146">
@@ -4819,16 +5465,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="253" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="147" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="148" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="149" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="150" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="151">
@@ -4873,12 +5519,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="249" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="248" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -4895,16 +5541,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="247" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -4949,12 +5595,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="243" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="242" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -4971,16 +5617,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="241" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -5025,12 +5671,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="237" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="236" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -5047,16 +5693,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="235" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -5101,12 +5747,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="231" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="230" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -5123,16 +5769,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="229" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -5177,12 +5823,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="225" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="224" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -5199,16 +5845,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="223" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -5253,12 +5899,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="219" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="218" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -5275,16 +5921,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="217" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5329,13 +5975,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5496,31 +6142,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
@@ -5536,7 +6182,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
@@ -5552,7 +6198,7 @@
       <c r="K2" s="64"/>
       <c r="L2" s="65"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -5590,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5624,7 +6270,7 @@
       </c>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5656,7 +6302,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5688,7 +6334,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -5722,7 +6368,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -5752,7 +6398,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -5782,7 +6428,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -5812,7 +6458,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -5844,7 +6490,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -5877,14 +6523,14 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="J3:J12"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="212" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -5901,16 +6547,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="211" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -5969,16 +6615,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="207" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -6023,16 +6669,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="203" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -6077,7 +6723,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="199" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -6094,16 +6740,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="198" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -6148,12 +6794,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="194" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="193" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -6170,16 +6816,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="192" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -6224,12 +6870,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="188" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="187" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="111">
@@ -6246,16 +6892,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="186" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="112" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="113" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="114" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="115" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -6300,12 +6946,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="182" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="181" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -6322,16 +6968,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="180" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -6376,12 +7022,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="176" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="175" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -6398,16 +7044,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="174" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -6452,12 +7098,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="170" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="169" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -6474,16 +7120,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="168" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -6528,12 +7174,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="164" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="163" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -6550,16 +7196,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="162" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -6604,12 +7250,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="158" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="157" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">
@@ -6626,16 +7272,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="156" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="28" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="29" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="30" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="31" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -6680,12 +7326,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="152" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="151" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -6702,16 +7348,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="150" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6756,12 +7402,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="146" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="145" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -6778,16 +7424,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="144" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6832,13 +7478,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6999,31 +7645,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
@@ -7039,7 +7685,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
@@ -7055,7 +7701,7 @@
       <c r="K2" s="64"/>
       <c r="L2" s="65"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -7093,7 +7739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7125,7 +7771,7 @@
       <c r="K4" s="43"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="11" t="s">
         <v>48</v>
@@ -7155,7 +7801,7 @@
       <c r="K5" s="43"/>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -7185,7 +7831,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -7215,7 +7861,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="87.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="87.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="11" t="s">
         <v>48</v>
@@ -7245,7 +7891,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="53"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -7277,7 +7923,7 @@
       <c r="K9" s="16"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -7310,14 +7956,14 @@
       <c r="L10" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J10" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="J3:J10"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="139" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -7334,16 +7980,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="138" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -7402,16 +8048,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="134" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -7456,16 +8102,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="130" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -7510,7 +8156,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="126" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -7527,16 +8173,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="125" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -7581,12 +8227,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="121" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="120" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -7603,16 +8249,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="119" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -7657,12 +8303,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="115" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="114" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -7679,16 +8325,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="113" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -7733,12 +8379,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="109" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="108" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -7755,16 +8401,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="107" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -7809,21 +8455,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="103" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="102" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="163" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="163" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="163" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="163" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="163">
@@ -7868,7 +8514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="98" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -7885,16 +8531,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="97" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -7939,12 +8585,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="93" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="92" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -7961,16 +8607,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="91" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -8015,17 +8661,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="87" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -8042,16 +8688,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="84" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -8096,7 +8742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="80" priority="1463" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="1463" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1464">
@@ -8113,13 +8759,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8258,30 +8904,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.21875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
@@ -8296,7 +8942,7 @@
       <c r="J1" s="62"/>
       <c r="K1" s="62"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
@@ -8311,7 +8957,7 @@
       <c r="J2" s="64"/>
       <c r="K2" s="65"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
@@ -8346,7 +8992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -8377,7 +9023,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -8404,7 +9050,7 @@
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -8435,7 +9081,7 @@
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -8464,7 +9110,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -8493,7 +9139,7 @@
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
     </row>
-    <row r="9" spans="1:11" ht="38.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -8519,7 +9165,7 @@
       <c r="J9" s="60"/>
       <c r="K9" s="61"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -8550,7 +9196,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -8579,7 +9225,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="53"/>
     </row>
-    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -8610,7 +9256,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" ht="64.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -8641,7 +9287,7 @@
       <c r="J13" s="22"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" s="41" customFormat="1" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="132" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -8673,14 +9319,14 @@
       <c r="K14" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="I3:I11" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="I3:I11"/>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H15:H1048576">
-    <cfRule type="cellIs" dxfId="78" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="265" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="266">
@@ -8697,16 +9343,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H1048576">
-    <cfRule type="cellIs" dxfId="77" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="267" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="268" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="269" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="270" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="271">
@@ -8765,16 +9411,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="73" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="277" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="278" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="279" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="280" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="281">
@@ -8819,16 +9465,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="69" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="286" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="287" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="288" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="289" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="290">
@@ -8873,7 +9519,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="65" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="134" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="135">
@@ -8890,16 +9536,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="64" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="136" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="137" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="138" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="139" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="140">
@@ -8944,12 +9590,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="60" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="122" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="59" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="123" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="124">
@@ -8966,16 +9612,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="58" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="125" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="126" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="127" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="128" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="129">
@@ -9020,12 +9666,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="54" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="53" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="111" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="112">
@@ -9042,16 +9688,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="52" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="113" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="114" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="115" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="116" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="117">
@@ -9096,12 +9742,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="48" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="47" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -9118,16 +9764,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="46" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -9172,12 +9818,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="42" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="41" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="88">
@@ -9194,16 +9840,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="40" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="89" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="90" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="91" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="92" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="93">
@@ -9248,17 +9894,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="36" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="35" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="73" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="34" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -9275,16 +9921,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="33" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -9329,7 +9975,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="29" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="146">
@@ -9346,16 +9992,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="28" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="147" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="148" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="149" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="150" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="151">
@@ -9400,16 +10046,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="24" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -9454,12 +10100,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="20" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="19" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -9476,16 +10122,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="28" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="29" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="30" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="31" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -9530,12 +10176,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">
@@ -9552,12 +10198,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -9574,16 +10220,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -9628,12 +10274,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -9650,16 +10296,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -9704,13 +10350,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9879,4 +10525,1628 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+    </row>
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="43"/>
+      <c r="K4" s="40"/>
+    </row>
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="43"/>
+      <c r="K5" s="40"/>
+    </row>
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="43"/>
+      <c r="K6" s="40"/>
+    </row>
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="39"/>
+      <c r="K7" s="41"/>
+    </row>
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="47"/>
+      <c r="H8" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61"/>
+    </row>
+    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="H9" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="60"/>
+      <c r="K9" s="61"/>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="46">
+        <v>43225</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="46">
+        <v>43226</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="K11" s="53"/>
+    </row>
+    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="46">
+        <v>43232</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="31"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="I3:I11"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H15:H1048576">
+    <cfRule type="cellIs" dxfId="78" priority="133" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="134">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F4F77841-7AA8-48FD-8A51-272F973FEEB3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:H1048576">
+    <cfRule type="cellIs" dxfId="77" priority="135" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="136" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="137" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="138" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="141">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="dataBar" priority="144">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CE6F5693-C078-4EFE-BDFB-BEBEC43CFDD8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="73" priority="145" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="146" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="147" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="148" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="cellIs" dxfId="69" priority="154" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="155" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="156" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="157" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="65" priority="110" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="111">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CECFF660-7839-49F0-A240-F8BFE1C8913D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="64" priority="112" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="113" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="114" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="115" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="cellIs" dxfId="60" priority="98" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="cellIs" dxfId="59" priority="99" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="100">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{881B44AD-3445-4739-94E9-3896BE8631AA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="cellIs" dxfId="58" priority="101" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="102" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="103" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="104" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="54" priority="86" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="53" priority="87" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="88">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{38410359-8D7D-4098-A42A-8C5916778D9E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="52" priority="89" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="90" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="91" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="92" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="48" priority="74" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="47" priority="75" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="76">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B9206922-0D16-4658-A7E2-8DC7779DE25B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="46" priority="77" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="78" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="79" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="80" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="42" priority="62" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="41" priority="63" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="64">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{49CE3288-C99D-4F16-969B-F4ABC25E5691}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="40" priority="65" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="66" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="67" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="68" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="36" priority="61" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="35" priority="49" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="34" priority="50" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="51">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F05895B5-70DF-44D7-B814-BC8D950F37F3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="33" priority="52" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="53" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="54" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="55" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="29" priority="121" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="122">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{438BDFD1-E081-4B65-A8EC-9943AAC237CB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="28" priority="123" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="124" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="125" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="126" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="24" priority="40" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="41" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="42" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="43" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="20" priority="37" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="19" priority="38" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="39">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{64004889-744B-44ED-9417-BDA86D74BC8E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="29" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="30" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="31" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8C676611-EEF8-42B7-A411-606314C1D4AC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{98FD0F2A-9410-4D90-A42D-7AA38DE7EFD2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D31EC951-3331-4A39-9557-AC3FB44D66D2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14">
+      <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14">
+      <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14">
+      <formula1>"ongoing,delay,close,cancel"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F4F77841-7AA8-48FD-8A51-272F973FEEB3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H15:H1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CE6F5693-C078-4EFE-BDFB-BEBEC43CFDD8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CECFF660-7839-49F0-A240-F8BFE1C8913D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{881B44AD-3445-4739-94E9-3896BE8631AA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H4:H5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{38410359-8D7D-4098-A42A-8C5916778D9E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B9206922-0D16-4658-A7E2-8DC7779DE25B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{49CE3288-C99D-4F16-969B-F4ABC25E5691}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F05895B5-70DF-44D7-B814-BC8D950F37F3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{438BDFD1-E081-4B65-A8EC-9943AAC237CB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{64004889-744B-44ED-9417-BDA86D74BC8E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8C676611-EEF8-42B7-A411-606314C1D4AC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{98FD0F2A-9410-4D90-A42D-7AA38DE7EFD2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D31EC951-3331-4A39-9557-AC3FB44D66D2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="132" operator="equal" id="{F0E00D9B-3F3A-4C2D-B3BE-4DD8F005960E}">
+            <xm:f>'C:\2016\工作汇报\周报\12月第5周\[技术平台开发组周报20161223---郑惠娜.xlsx]李国辉'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H1</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="130">
   <si>
     <t>组别</t>
   </si>
@@ -581,7 +581,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4390,7 +4390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4425,7 +4425,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10531,8 +10531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -10632,9 +10632,7 @@
       <c r="E4" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="47" t="s">
-        <v>87</v>
-      </c>
+      <c r="F4" s="47"/>
       <c r="G4" s="47" t="s">
         <v>88</v>
       </c>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="134">
   <si>
     <t>组别</t>
   </si>
@@ -577,11 +577,27 @@
     <t>撰写功能，页面好了后再进行页面撰写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>S5810自动化生产以及巨烽和飞利浦的曲线自动化已测试完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/14日可提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迈瑞程序下载代码已修改完成，待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周进行测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4390,7 +4406,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4425,7 +4441,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4640,24 +4656,24 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.36328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
@@ -4673,7 +4689,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
@@ -4689,7 +4705,7 @@
       <c r="K2" s="64"/>
       <c r="L2" s="65"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -4727,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -4761,7 +4777,7 @@
       <c r="K4" s="39"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -4795,7 +4811,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -4829,7 +4845,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -4863,7 +4879,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -4897,7 +4913,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -4927,7 +4943,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -4959,7 +4975,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -4989,7 +5005,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -6149,24 +6165,24 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.36328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
@@ -6182,7 +6198,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
@@ -6198,7 +6214,7 @@
       <c r="K2" s="64"/>
       <c r="L2" s="65"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -6236,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -6270,7 +6286,7 @@
       </c>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -6302,7 +6318,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -6334,7 +6350,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -6368,7 +6384,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -6398,7 +6414,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -6428,7 +6444,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -6458,7 +6474,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -6490,7 +6506,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -7652,24 +7668,24 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.36328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
@@ -7685,7 +7701,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
@@ -7701,7 +7717,7 @@
       <c r="K2" s="64"/>
       <c r="L2" s="65"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -7739,7 +7755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7771,7 +7787,7 @@
       <c r="K4" s="43"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="11" t="s">
         <v>48</v>
@@ -7801,7 +7817,7 @@
       <c r="K5" s="43"/>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -7831,7 +7847,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -7861,7 +7877,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="87.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="87.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="11" t="s">
         <v>48</v>
@@ -7891,7 +7907,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="53"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -7923,7 +7939,7 @@
       <c r="K9" s="16"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -8911,23 +8927,23 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.36328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.08984375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.08984375" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
@@ -8942,7 +8958,7 @@
       <c r="J1" s="62"/>
       <c r="K1" s="62"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
@@ -8957,7 +8973,7 @@
       <c r="J2" s="64"/>
       <c r="K2" s="65"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
@@ -8992,7 +9008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -9023,7 +9039,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -9050,7 +9066,7 @@
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -9081,7 +9097,7 @@
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -9110,7 +9126,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -9139,7 +9155,7 @@
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
     </row>
-    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -9165,7 +9181,7 @@
       <c r="J9" s="60"/>
       <c r="K9" s="61"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -9196,7 +9212,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -9225,7 +9241,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="53"/>
     </row>
-    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -9256,7 +9272,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -9287,7 +9303,7 @@
       <c r="J13" s="22"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" s="41" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="132" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -10531,27 +10547,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.36328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.08984375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.08984375" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
@@ -10566,7 +10582,7 @@
       <c r="J1" s="62"/>
       <c r="K1" s="62"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
@@ -10581,7 +10597,7 @@
       <c r="J2" s="64"/>
       <c r="K2" s="65"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
@@ -10616,7 +10632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -10645,7 +10661,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -10672,7 +10688,7 @@
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -10703,7 +10719,7 @@
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -10732,7 +10748,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -10749,9 +10765,11 @@
         <v>104</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="47"/>
+        <v>130</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>131</v>
+      </c>
       <c r="H8" s="43" t="s">
         <v>13</v>
       </c>
@@ -10761,7 +10779,7 @@
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
     </row>
-    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -10777,7 +10795,12 @@
       <c r="E9" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="H9" s="43" t="s">
         <v>13</v>
       </c>
@@ -10787,7 +10810,7 @@
       <c r="J9" s="60"/>
       <c r="K9" s="61"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -10818,7 +10841,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -10847,7 +10870,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="53"/>
     </row>
-    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -10878,7 +10901,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -10909,7 +10932,7 @@
       <c r="J13" s="22"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" s="41" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="132" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="138">
   <si>
     <t>组别</t>
   </si>
@@ -593,11 +593,25 @@
     <t>下周进行测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">对老外需求进行汇总并列出了计划
+</t>
+  </si>
+  <si>
+    <t>预计一周半时间完成客户提出的需求（截止2018/5/22）（1.能手动设置最大亮度 2.目视检查图片用无压缩格式代替jpg格式 3.远程操作要能判断显示器是否有人使用 4.能够展示随着时间推移显示器的一致性信息5.多点测量亮度）</t>
+  </si>
+  <si>
+    <t>DDC已植入MonitorApi，并完成了验证</t>
+  </si>
+  <si>
+    <t>我负责的显示专家模块已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4364,7 +4378,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4656,24 +4670,24 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.36328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.08984375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
@@ -4689,7 +4703,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
@@ -4705,7 +4719,7 @@
       <c r="K2" s="64"/>
       <c r="L2" s="65"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -4743,7 +4757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -4777,7 +4791,7 @@
       <c r="K4" s="39"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -4811,7 +4825,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -4845,7 +4859,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -4879,7 +4893,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -4913,7 +4927,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -4943,7 +4957,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -4975,7 +4989,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -5005,7 +5019,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -6165,24 +6179,24 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.36328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.08984375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
@@ -6198,7 +6212,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
@@ -6214,7 +6228,7 @@
       <c r="K2" s="64"/>
       <c r="L2" s="65"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -6252,7 +6266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -6286,7 +6300,7 @@
       </c>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -6318,7 +6332,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -6350,7 +6364,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -6384,7 +6398,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -6414,7 +6428,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -6444,7 +6458,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -6474,7 +6488,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -6506,7 +6520,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -7668,24 +7682,24 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.36328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.08984375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
@@ -7701,7 +7715,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
@@ -7717,7 +7731,7 @@
       <c r="K2" s="64"/>
       <c r="L2" s="65"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -7755,7 +7769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7787,7 +7801,7 @@
       <c r="K4" s="43"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="11" t="s">
         <v>48</v>
@@ -7817,7 +7831,7 @@
       <c r="K5" s="43"/>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -7847,7 +7861,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -7877,7 +7891,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="87.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="87.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="11" t="s">
         <v>48</v>
@@ -7907,7 +7921,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="53"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -7939,7 +7953,7 @@
       <c r="K9" s="16"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -8927,23 +8941,23 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.36328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.08984375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.08984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
@@ -8958,7 +8972,7 @@
       <c r="J1" s="62"/>
       <c r="K1" s="62"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
@@ -8973,7 +8987,7 @@
       <c r="J2" s="64"/>
       <c r="K2" s="65"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
@@ -9008,7 +9022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -9039,7 +9053,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -9066,7 +9080,7 @@
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -9097,7 +9111,7 @@
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -9126,7 +9140,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -9155,7 +9169,7 @@
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
     </row>
-    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -9181,7 +9195,7 @@
       <c r="J9" s="60"/>
       <c r="K9" s="61"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -9212,7 +9226,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -9241,7 +9255,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="53"/>
     </row>
-    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -9272,7 +9286,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -9303,7 +9317,7 @@
       <c r="J13" s="22"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" s="41" customFormat="1" ht="132" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="132" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -10548,26 +10562,26 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.36328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.08984375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.08984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
@@ -10582,7 +10596,7 @@
       <c r="J1" s="62"/>
       <c r="K1" s="62"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
@@ -10597,7 +10611,7 @@
       <c r="J2" s="64"/>
       <c r="K2" s="65"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
@@ -10632,7 +10646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -10661,7 +10675,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -10688,7 +10702,7 @@
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -10719,7 +10733,7 @@
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -10748,7 +10762,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -10779,7 +10793,7 @@
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
     </row>
-    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -10810,7 +10824,7 @@
       <c r="J9" s="60"/>
       <c r="K9" s="61"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -10824,13 +10838,13 @@
         <v>16</v>
       </c>
       <c r="E10" s="46">
-        <v>43225</v>
+        <v>43242</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>13</v>
@@ -10841,7 +10855,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -10855,12 +10869,14 @@
         <v>11</v>
       </c>
       <c r="E11" s="46">
-        <v>43226</v>
+        <v>43232</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="26"/>
+        <v>136</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>137</v>
+      </c>
       <c r="H11" s="19" t="s">
         <v>13</v>
       </c>
@@ -10870,7 +10886,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="53"/>
     </row>
-    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -10901,7 +10917,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -10932,7 +10948,7 @@
       <c r="J13" s="22"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" s="41" customFormat="1" ht="132" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="132" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{241802EB-1F14-4BA2-92BF-3DCF7156BF5A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0416" sheetId="6" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="140">
   <si>
     <t>组别</t>
   </si>
@@ -607,11 +608,25 @@
     <t>我负责的显示专家模块已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">医院调研（已完成）
+NISIRC8610 服务与客户端程序打包可安装 2018/5/11----李贯涛（已完成）
+NISIRC8610 守护进程开发 2018/5/9----李贯涛（已完成）
+小鱼和vidyo产品调研、演示、试用——刘善翼
+其他1080P会议终端调研——刘善翼      </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件传输功能整理重构------2018/5/15
+解已发现的BUG，自测RC8610------2018/5/18
+医院调研------李贯涛/刘善翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1172,11 +1187,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="常规 2 2" xfId="1"/>
-    <cellStyle name="常规 2 3" xfId="3"/>
-    <cellStyle name="常规 3 2" xfId="2"/>
-    <cellStyle name="常规 3 2 2" xfId="4"/>
+    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 3 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="367">
     <dxf>
@@ -4343,7 +4358,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="366"/>
       <tableStyleElement type="headerRow" dxfId="365"/>
     </tableStyle>
@@ -4378,7 +4393,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4453,6 +4468,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4488,6 +4520,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4663,7 +4712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -5050,7 +5099,7 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12"/>
+  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -6005,13 +6054,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6172,7 +6221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -6553,7 +6602,7 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12"/>
+  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -7508,13 +7557,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7675,7 +7724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -7986,7 +8035,7 @@
       <c r="L10" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J10"/>
+  <autoFilter ref="J3:J10" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -8789,13 +8838,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8934,7 +8983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
@@ -9349,7 +9398,7 @@
       <c r="K14" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="I3:I11"/>
+  <autoFilter ref="I3:I11" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -10380,13 +10429,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10558,11 +10607,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -10948,7 +10997,7 @@
       <c r="J13" s="22"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" s="41" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -10965,10 +11014,10 @@
         <v>124</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>13</v>
@@ -10980,7 +11029,7 @@
       <c r="K14" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="I3:I11"/>
+  <autoFilter ref="I3:I11" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -12011,13 +12060,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{241802EB-1F14-4BA2-92BF-3DCF7156BF5A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CE77B009-AD8B-4E62-8D6B-77CBB6B29BCB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,8 +617,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件传输功能整理重构------2018/5/15
-解已发现的BUG，自测RC8610------2018/5/18
+    <t>文件传输功能整理重构------2018/5/15李贯涛
+解已发现的BUG，自测RC8610------2018/5/18李贯涛
 医院调研------李贯涛/刘善翼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CE77B009-AD8B-4E62-8D6B-77CBB6B29BCB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{97928387-E524-4021-992A-A9A569170483}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,16 +609,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">医院调研（已完成）
+    <t>省人民医院调研，
 NISIRC8610 服务与客户端程序打包可安装 2018/5/11----李贯涛（已完成）
 NISIRC8610 守护进程开发 2018/5/9----李贯涛（已完成）
-小鱼和vidyo产品调研、演示、试用——刘善翼
-其他1080P会议终端调研——刘善翼      </t>
+小鱼和vidyo产品调研、演示、试用——刘善翼（借机已到，待演示和试用）
+其他1080P会议终端调研——刘善翼 （维海德借机已到，待演示和试用)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>文件传输功能整理重构------2018/5/15李贯涛
 解已发现的BUG，自测RC8610------2018/5/18李贯涛
+测试（小鱼、vidyo、维海德的产品，维海德的产品有限测试)------2018/5/18李贯涛/刘善翼
+多媒体控制模块UI调整、屏幕布局设置功能调整——2018/5/15/刘善翼
 医院调研------李贯涛/刘善翼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -10610,7 +10612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -10997,7 +10999,7 @@
       <c r="J13" s="22"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" s="41" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{97928387-E524-4021-992A-A9A569170483}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0416" sheetId="6" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="146">
   <si>
     <t>组别</t>
   </si>
@@ -624,11 +623,45 @@
 医院调研------李贯涛/刘善翼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>C620病理模式完成提测、代码review未完成、完成护眼模式调试 - 徐海明
+完成US19-NS导入新协议、远程联调。完成深圳ODM新协议现场工具不能用问题支援 - 徐海明
+理邦代码已完成 - 徐海明
+持续配合scaler平台导入3D - 徐海明
+完成3.04版本音频、pdf导入代码 - 张颖燕
+理邦未开始联调，scaler有紧急项目 - 张颖燕
+持续协助迈瑞13.3导入新协议联调 - 张颖燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C620护眼模式曲线评审及导入 - 徐海明
+音频、pdf测试、西门子bug、S8610卡死问题 - 徐海明
+持续配合scaler平台导入3D - 徐海明
+完成理邦、迈瑞13.3联调 - 张颖燕
+ODM新协议现场工具二轮建议搜集及按建议更改、周二前调通蓝韵下曲线 - 张颖燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调通3D优化方案，出实验数据 - 徐海明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助孙伟定位分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成问题定位，QC不做改动 - 徐海明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提测 - 张颖燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1189,11 +1222,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 3 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 2 2" xfId="1"/>
+    <cellStyle name="常规 2 3" xfId="3"/>
+    <cellStyle name="常规 3 2" xfId="2"/>
+    <cellStyle name="常规 3 2 2" xfId="4"/>
   </cellStyles>
   <dxfs count="367">
     <dxf>
@@ -4360,7 +4393,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="366"/>
       <tableStyleElement type="headerRow" dxfId="365"/>
     </tableStyle>
@@ -4437,7 +4470,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4470,26 +4503,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4522,23 +4538,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4714,7 +4713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -5101,7 +5100,7 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="J3:J12"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -6056,13 +6055,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6223,7 +6222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -6604,7 +6603,7 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="J3:J12"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -7559,13 +7558,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7726,7 +7725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -8037,7 +8036,7 @@
       <c r="L10" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J10" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="J3:J10"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -8840,13 +8839,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8985,7 +8984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
@@ -9400,7 +9399,7 @@
       <c r="K14" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="I3:I11" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="I3:I11"/>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -10431,13 +10430,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10609,11 +10608,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -10697,7 +10696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="150.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -10713,9 +10712,11 @@
       <c r="E4" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="47" t="s">
+        <v>140</v>
+      </c>
       <c r="G4" s="47" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>13</v>
@@ -10743,7 +10744,9 @@
         <v>90</v>
       </c>
       <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
+      <c r="G5" s="47" t="s">
+        <v>142</v>
+      </c>
       <c r="H5" s="43" t="s">
         <v>13</v>
       </c>
@@ -10770,7 +10773,7 @@
         <v>99</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="G6" s="47" t="s">
         <v>77</v>
@@ -10800,9 +10803,11 @@
       <c r="E7" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="47"/>
+      <c r="F7" s="47" t="s">
+        <v>144</v>
+      </c>
       <c r="G7" s="47" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="H7" s="43" t="s">
         <v>13</v>
@@ -11031,7 +11036,7 @@
       <c r="K14" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="I3:I11" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="I3:I11"/>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -12062,13 +12067,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="148">
   <si>
     <t>组别</t>
   </si>
@@ -657,11 +657,21 @@
     <t>提测 - 张颖燕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>UI设计第一稿评审完成
+第二稿设计完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端客户端界面架构开始搭建；
+工业设计效果图开始；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4470,7 +4480,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4505,7 +4515,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10611,8 +10621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -10942,7 +10952,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="53"/>
     </row>
-    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -10959,10 +10969,10 @@
         <v>91</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>13</v>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0416" sheetId="6" r:id="rId1"/>
@@ -12,9 +12,10 @@
     <sheet name="0503" sheetId="10" r:id="rId3"/>
     <sheet name="0507" sheetId="12" r:id="rId4"/>
     <sheet name="0512" sheetId="13" r:id="rId5"/>
+    <sheet name="0519" sheetId="14" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0416'!$J$3:$J$12</definedName>
@@ -22,13 +23,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'0503'!$J$3:$J$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'0507'!$I$3:$I$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'0512'!$I$3:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'0519'!$I$3:$I$11</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="168">
   <si>
     <t>组别</t>
   </si>
@@ -667,12 +669,137 @@
 工业设计效果图开始；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2018/5/8,开始自测；2018/5/10自测完成
+2018/5/8号 C620病理模式自测，2018/5/10自测，代码review完成
+3.04版本 5/11号提测
+导入理邦 新协议，5/9日前完成-徐海明，联调-5/11-张颖燕
+完成3.05版本（C620/C350护眼模式/3.04版本问题解决）音频、pdf导入代码 -徐海明，5/19日前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C620护眼模式曲线评审及导入 - 徐海明
+音频、pdf测试、西门子bug、S8610卡死问题 - 徐海明
+持续配合scaler平台导入3D - 徐海明
+完成理邦、迈瑞13.3联调 - 张颖燕
+ODM新协议现场工具二轮建议搜集及按建议更改、周二前调通蓝韵下曲线 - 张颖燕
+完成3.05版本（C620/C350护眼模式/3.04版本问题解决）音频、pdf导入代码 -徐海明，5/19日前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3DLUT结合方案二代码完成-5/23,数据验证 5/26
+方案优化完成-5/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>84 CGA 新协议修改提测-5/16
+84展厅更新-5/22
+CGA2S1.01测试-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5/18-?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+CGA2S1.01发布-6/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助孙伟定位分析，提测-5/16
+将更改后的CGA部署到展厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成问题定位，QC不做改动 - 徐海明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提测 - 张颖燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5810自动化生产以及巨烽和飞利浦的曲线自动化已测试完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/14日可提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/8 培训完成迈瑞程序下载机制，5/11联调完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迈瑞程序下载代码已修改完成，待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周进行测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我负责的显示专家模块已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/5/31 管理端、客户端框架搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI设计第一稿评审完成
+第二稿设计完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端客户端界面架构开始搭建；
+工业设计效果图开始；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/5/23 UI设计稿评审
+2018/5/26 自测完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、功能已确定，页面需求已经交给工业设计，等待工业设计进行设计。
+2、熟悉不同机型业务，修正框架，撰写功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">撰写功能，页面好了后再进行页面撰写
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件传输功能整理重构------2018/5/15李贯涛
+解已发现的BUG，自测RC8610------2018/5/18李贯涛
+测试（小鱼、vidyo、维海德的产品，维海德的产品有限测试)------2018/5/18李贯涛/刘善翼
+多媒体控制模块UI调整、屏幕布局设置功能调整——2018/5/15/刘善翼
+医院调研------李贯涛/刘善翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,6 +891,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1032,7 +1166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1229,6 +1363,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1238,7 +1375,686 @@
     <cellStyle name="常规 3 2" xfId="2"/>
     <cellStyle name="常规 3 2 2" xfId="4"/>
   </cellStyles>
-  <dxfs count="367">
+  <dxfs count="446">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4404,8 +5220,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="366"/>
-      <tableStyleElement type="headerRow" dxfId="365"/>
+      <tableStyleElement type="wholeTable" dxfId="445"/>
+      <tableStyleElement type="headerRow" dxfId="444"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -5117,7 +5933,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="364" priority="1184" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="1184" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1185">
@@ -5134,16 +5950,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="363" priority="1186" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="1186" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="1187" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="1187" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="1188" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="1188" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="1189" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="1189" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1190">
@@ -5202,16 +6018,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="359" priority="1423" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="1423" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="1424" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="1424" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="1425" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="1425" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="1426" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="1426" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1427">
@@ -5256,16 +6072,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="355" priority="1454" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="1454" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="1455" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="1455" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="1456" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="1456" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="1457" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="1457" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1458">
@@ -5310,7 +6126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="351" priority="826" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="826" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="827">
@@ -5327,16 +6143,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="350" priority="828" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="828" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="829" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="829" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="830" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="831" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="831" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="832">
@@ -5381,12 +6197,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="346" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="232" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="345" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="233" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="234">
@@ -5403,16 +6219,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="344" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="235" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="236" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="237" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="238" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="239">
@@ -5457,12 +6273,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="340" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="231" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="339" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="244" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="245">
@@ -5479,16 +6295,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="338" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="246" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="247" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="248" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="249" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="250">
@@ -5533,12 +6349,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="334" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="144" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="333" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="146">
@@ -5555,16 +6371,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="332" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="147" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="148" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="149" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="150" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="151">
@@ -5609,12 +6425,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="328" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="327" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -5631,16 +6447,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="326" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -5685,12 +6501,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="322" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="321" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -5707,16 +6523,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="320" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -5761,12 +6577,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="316" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="315" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -5783,16 +6599,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="314" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -5837,12 +6653,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="310" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="309" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -5859,16 +6675,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="308" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -5913,12 +6729,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="304" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="303" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -5935,16 +6751,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="302" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -5989,12 +6805,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="298" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="297" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -6011,16 +6827,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="296" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6620,7 +7436,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="291" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -6637,16 +7453,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="290" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -6705,16 +7521,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="286" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -6759,16 +7575,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="282" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -6813,7 +7629,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="278" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -6830,16 +7646,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="277" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -6884,12 +7700,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="273" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="272" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -6906,16 +7722,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="271" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -6960,12 +7776,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="267" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="266" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="111">
@@ -6982,16 +7798,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="265" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="112" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="113" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="114" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="115" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -7036,12 +7852,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="261" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="260" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -7058,16 +7874,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="259" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -7112,12 +7928,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="255" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="254" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -7134,16 +7950,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="253" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -7188,12 +8004,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="249" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="248" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -7210,16 +8026,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="247" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -7264,12 +8080,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="243" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="242" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -7286,16 +8102,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="241" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -7340,12 +8156,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="237" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="236" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">
@@ -7362,16 +8178,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="235" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="28" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="29" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="30" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="31" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -7416,12 +8232,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="231" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="230" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -7438,16 +8254,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="229" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -7492,12 +8308,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="225" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="224" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -7514,16 +8330,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="223" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -8053,7 +8869,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="218" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -8070,16 +8886,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="217" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -8138,16 +8954,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="213" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -8192,16 +9008,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="209" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -8246,7 +9062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="205" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -8263,16 +9079,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="204" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -8317,12 +9133,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="200" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="199" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -8339,16 +9155,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="198" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -8393,12 +9209,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="194" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="193" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -8415,16 +9231,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="192" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -8469,12 +9285,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="188" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="187" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -8491,16 +9307,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="186" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -8545,21 +9361,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="182" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="181" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="163" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="163" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="163" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="163" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="163">
@@ -8604,7 +9420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="177" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -8621,16 +9437,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="176" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -8675,12 +9491,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="172" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="171" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -8697,16 +9513,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="170" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -8751,17 +9567,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="166" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="165" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="164" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -8778,16 +9594,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="163" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -8832,7 +9648,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="159" priority="1463" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="1463" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1464">
@@ -9416,7 +10232,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H15:H1048576">
-    <cfRule type="cellIs" dxfId="157" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="265" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="266">
@@ -9433,16 +10249,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H1048576">
-    <cfRule type="cellIs" dxfId="156" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="267" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="268" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="269" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="270" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="271">
@@ -9501,16 +10317,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="152" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="277" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="278" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="279" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="280" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="281">
@@ -9555,16 +10371,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="148" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="286" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="287" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="288" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="289" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="290">
@@ -9609,7 +10425,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="144" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="134" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="135">
@@ -9626,16 +10442,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="143" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="136" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="137" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="138" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="139" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="140">
@@ -9680,12 +10496,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="139" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="122" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="138" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="123" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="124">
@@ -9702,16 +10518,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="137" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="125" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="126" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="127" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="128" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="129">
@@ -9756,12 +10572,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="133" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="132" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="111" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="112">
@@ -9778,16 +10594,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="131" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="113" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="114" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="115" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="116" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="117">
@@ -9832,12 +10648,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="127" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="126" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -9854,16 +10670,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="125" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -9908,12 +10724,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="121" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="120" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="88">
@@ -9930,16 +10746,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="119" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="89" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="90" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="91" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="92" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="93">
@@ -9984,17 +10800,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="115" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="114" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="73" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="113" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -10011,16 +10827,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="112" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -10065,7 +10881,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="108" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="146">
@@ -10082,16 +10898,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="107" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="147" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="148" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="149" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="150" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="151">
@@ -10136,16 +10952,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="103" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -10190,12 +11006,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="99" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="98" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -10212,16 +11028,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="97" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="28" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="29" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="30" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="31" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -10266,12 +11082,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="93" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="92" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">
@@ -10288,12 +11104,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="91" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="90" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -10310,16 +11126,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="89" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -10364,12 +11180,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="85" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="84" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -10386,16 +11202,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -10621,7 +11437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
@@ -11053,7 +11869,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H15:H1048576">
-    <cfRule type="cellIs" dxfId="78" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -11070,16 +11886,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H1048576">
-    <cfRule type="cellIs" dxfId="77" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -11138,16 +11954,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="73" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -11192,16 +12008,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="69" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -11246,7 +12062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="65" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="111">
@@ -11263,16 +12079,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="64" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="112" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="113" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="114" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="115" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -11317,12 +12133,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="60" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="59" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -11339,16 +12155,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="58" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -11393,12 +12209,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="54" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="53" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="88">
@@ -11415,16 +12231,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="52" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="89" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="90" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="91" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="92" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="93">
@@ -11469,12 +12285,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="48" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="47" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="76">
@@ -11491,16 +12307,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="46" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="77" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="78" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="79" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="80" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="81">
@@ -11545,12 +12361,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="42" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="41" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -11567,16 +12383,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="40" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -11621,17 +12437,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="36" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="35" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="34" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -11648,16 +12464,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="33" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -11702,7 +12518,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="29" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -11719,16 +12535,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="28" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -11773,16 +12589,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="24" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -11827,12 +12643,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="20" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="19" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -11849,16 +12665,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="28" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="29" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="30" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="31" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -11903,12 +12719,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">
@@ -11925,12 +12741,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -11947,16 +12763,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -12001,12 +12817,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -12023,16 +12839,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -12252,4 +13068,1635 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+    </row>
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="198" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="43"/>
+      <c r="K4" s="40"/>
+    </row>
+    <row r="5" spans="1:11" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="43"/>
+      <c r="K5" s="40"/>
+    </row>
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="43"/>
+      <c r="K6" s="40"/>
+    </row>
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="39"/>
+      <c r="K7" s="41"/>
+    </row>
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61"/>
+    </row>
+    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="60"/>
+      <c r="K9" s="61"/>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="46">
+        <v>43242</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="46">
+        <v>43232</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="K11" s="53"/>
+    </row>
+    <row r="12" spans="1:11" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="31"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="I3:I11"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H15:H1048576">
+    <cfRule type="cellIs" dxfId="78" priority="133" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="134">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C8D8C413-DE8C-434C-B83F-2D395AB66EC2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:H1048576">
+    <cfRule type="cellIs" dxfId="77" priority="135" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="136" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="137" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="138" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="141">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="dataBar" priority="144">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9A896069-4185-4143-8956-80F07E6FD24A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="73" priority="145" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="146" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="147" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="148" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="cellIs" dxfId="69" priority="154" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="155" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="156" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="157" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="65" priority="110" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="111">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5EE419C2-6C19-4BD2-9588-27C7B75EC16B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="64" priority="112" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="113" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="114" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="115" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="cellIs" dxfId="60" priority="98" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="cellIs" dxfId="59" priority="99" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="100">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4A34DC30-73CA-4055-A5C3-AAA9D350A8B7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="cellIs" dxfId="58" priority="101" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="102" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="103" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="104" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="54" priority="86" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="53" priority="87" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="88">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4F076031-A3C7-464A-8267-F8D3AC6C102B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="52" priority="89" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="90" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="91" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="92" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="48" priority="74" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="47" priority="75" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="76">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3DA0BA71-D1FA-442E-9F8C-455A5A15233B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="46" priority="77" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="78" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="79" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="80" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="42" priority="62" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="41" priority="63" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="64">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B7F3DA2D-6C78-424F-9439-DAFD3C38CDA7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="40" priority="65" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="66" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="67" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="68" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="36" priority="61" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="35" priority="49" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="34" priority="50" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="51">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C9DC84F6-EA43-4E6B-99D4-30961BE760F4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="33" priority="52" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="53" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="54" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="55" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="29" priority="121" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="122">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0B11DD5A-A493-479E-9966-C6997922EADE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="28" priority="123" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="124" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="125" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="126" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="24" priority="40" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="41" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="42" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="43" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="20" priority="37" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="19" priority="38" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="39">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{102E3E0D-1CAA-4777-B025-8118C66E47FC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="29" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="30" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="31" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0334DA1B-F75F-4C4E-982F-2AE9B6B787CA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C78C769D-C611-4A56-AD72-005D7F99FC86}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6B9E6213-DE81-4076-B53B-9140B4548A7A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"cancel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+      <formula>"delay"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14">
+      <formula1>"ongoing,delay,close,cancel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14">
+      <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14">
+      <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C8D8C413-DE8C-434C-B83F-2D395AB66EC2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H15:H1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9A896069-4185-4143-8956-80F07E6FD24A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5EE419C2-6C19-4BD2-9588-27C7B75EC16B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4A34DC30-73CA-4055-A5C3-AAA9D350A8B7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H4:H5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4F076031-A3C7-464A-8267-F8D3AC6C102B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3DA0BA71-D1FA-442E-9F8C-455A5A15233B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B7F3DA2D-6C78-424F-9439-DAFD3C38CDA7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C9DC84F6-EA43-4E6B-99D4-30961BE760F4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0B11DD5A-A493-479E-9966-C6997922EADE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{102E3E0D-1CAA-4777-B025-8118C66E47FC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0334DA1B-F75F-4C4E-982F-2AE9B6B787CA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C78C769D-C611-4A56-AD72-005D7F99FC86}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6B9E6213-DE81-4076-B53B-9140B4548A7A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="132" operator="equal" id="{C579B1F0-F679-405A-80ED-FF747A65268B}">
+            <xm:f>'C:\2016\工作汇报\周报\12月第5周\[技术平台开发组周报20161223---郑惠娜.xlsx]李国辉'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H1</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -23,14 +23,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'0503'!$J$3:$J$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'0507'!$I$3:$I$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'0512'!$I$3:$I$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'0519'!$I$3:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'0519'!$I$3:$I$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="169">
   <si>
     <t>组别</t>
   </si>
@@ -754,10 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我负责的显示专家模块已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018/5/31 管理端、客户端框架搭建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -794,11 +790,19 @@
 医院调研------李贯涛/刘善翼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>预计一周半时间完成客户提出的需求 1.目视检查图片用无压缩格式代替jpg格式 2.远程操作要能判断显示器是否有人使用（现在做的是增加free和busy按钮提示管理端是否有人使用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/5/21-2018/5/22协助刘善翼李贯涛进行RC8610测试；客户需求变更，预计2018/5/25完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1351,6 +1355,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1362,9 +1369,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5254,7 +5258,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5564,36 +5568,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -7073,36 +7077,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -8576,36 +8580,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -9834,34 +9838,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -11458,34 +11462,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -13072,10 +13076,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -13095,34 +13099,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -13201,7 +13205,7 @@
       <c r="D5" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="62" t="s">
         <v>150</v>
       </c>
       <c r="F5" s="47"/>
@@ -13351,13 +13355,13 @@
         <v>16</v>
       </c>
       <c r="E10" s="46">
-        <v>43242</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>134</v>
+        <v>43245</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>167</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>13</v>
@@ -13368,86 +13372,86 @@
       <c r="J10" s="36"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="46">
-        <v>43232</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="54" t="s">
         <v>160</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="53"/>
+        <v>74</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="30"/>
     </row>
-    <row r="12" spans="1:11" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>21</v>
+      <c r="C12" s="45" t="s">
+        <v>26</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="G12" s="16" t="s">
         <v>163</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>165</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="30"/>
+      <c r="I12" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="22"/>
+      <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="41" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>164</v>
+        <v>11</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>124</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="G13" s="22" t="s">
         <v>166</v>
@@ -13456,50 +13460,19 @@
         <v>13</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" s="41" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
-        <v>11</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="31"/>
-    </row>
   </sheetData>
-  <autoFilter ref="I3:I11"/>
+  <autoFilter ref="I3:I10"/>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H15:H1048576">
+  <conditionalFormatting sqref="H14:H1048576">
     <cfRule type="cellIs" dxfId="78" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -13516,7 +13489,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H1048576">
+  <conditionalFormatting sqref="H14:H1048576">
     <cfRule type="cellIs" dxfId="77" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
@@ -13991,12 +13964,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="H11">
     <cfRule type="cellIs" dxfId="42" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="H11">
     <cfRule type="cellIs" dxfId="41" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -14013,7 +13986,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="H11">
     <cfRule type="cellIs" dxfId="40" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
@@ -14067,7 +14040,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="H12">
     <cfRule type="cellIs" dxfId="36" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -14148,7 +14121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="H12">
     <cfRule type="cellIs" dxfId="29" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -14165,7 +14138,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="H12">
     <cfRule type="cellIs" dxfId="28" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
@@ -14371,88 +14344,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C78C769D-C611-4A56-AD72-005D7F99FC86}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
-      <formula>"cancel"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
-      <formula>"ongoing"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
-      <formula>"close"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
-      <formula>"delay"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="H13">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="H13">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -14469,7 +14366,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="H13">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
@@ -14524,14 +14421,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14">
-      <formula1>"ongoing,delay,close,cancel"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B13">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D13">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H13">
+      <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14548,7 +14445,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H15:H1048576</xm:sqref>
+          <xm:sqref>H14:H1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9A896069-4185-4143-8956-80F07E6FD24A}">
@@ -14614,7 +14511,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H12</xm:sqref>
+          <xm:sqref>H11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C9DC84F6-EA43-4E6B-99D4-30961BE760F4}">
@@ -14636,7 +14533,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H13</xm:sqref>
+          <xm:sqref>H12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{102E3E0D-1CAA-4777-B025-8118C66E47FC}">
@@ -14661,17 +14558,6 @@
           <xm:sqref>H9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C78C769D-C611-4A56-AD72-005D7F99FC86}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6B9E6213-DE81-4076-B53B-9140B4548A7A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -14680,7 +14566,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H14</xm:sqref>
+          <xm:sqref>H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="132" operator="equal" id="{C579B1F0-F679-405A-80ED-FF747A65268B}">

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="168">
   <si>
     <t>组别</t>
   </si>
@@ -738,33 +738,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5/14日可提测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5/8 培训完成迈瑞程序下载机制，5/11联调完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>迈瑞程序下载代码已修改完成，待测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下周进行测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018/5/31 管理端、客户端框架搭建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UI设计第一稿评审完成
 第二稿设计完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理端客户端界面架构开始搭建；
-工业设计效果图开始；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -798,11 +781,23 @@
     <t>2018/5/21-2018/5/22协助刘善翼李贯涛进行RC8610测试；客户需求变更，预计2018/5/25完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>已经提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迈瑞程序下载代码已修改完成，正在调试自测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1379,62 +1374,11 @@
     <cellStyle name="常规 3 2" xfId="2"/>
     <cellStyle name="常规 3 2 2" xfId="4"/>
   </cellStyles>
-  <dxfs count="446">
+  <dxfs count="440">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5224,8 +5168,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="445"/>
-      <tableStyleElement type="headerRow" dxfId="444"/>
+      <tableStyleElement type="wholeTable" dxfId="439"/>
+      <tableStyleElement type="headerRow" dxfId="438"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -5258,7 +5202,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5550,24 +5494,24 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.36328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
@@ -5583,7 +5527,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
@@ -5599,7 +5543,7 @@
       <c r="K2" s="65"/>
       <c r="L2" s="66"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -5637,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5671,7 +5615,7 @@
       <c r="K4" s="39"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5705,7 +5649,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5739,7 +5683,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -5773,7 +5717,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -5807,7 +5751,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -5837,7 +5781,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -5869,7 +5813,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -5899,7 +5843,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -5937,7 +5881,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="443" priority="1184" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="1184" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1185">
@@ -5954,16 +5898,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="442" priority="1186" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="1186" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="1187" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="1187" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="1188" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="1188" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="1189" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="1189" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1190">
@@ -6022,16 +5966,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="438" priority="1423" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="1423" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="1424" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="1424" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="1425" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="1425" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="1426" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="1426" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1427">
@@ -6076,16 +6020,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="434" priority="1454" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="1454" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="1455" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="1455" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="1456" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="1456" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="1457" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="1457" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1458">
@@ -6130,7 +6074,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="430" priority="826" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="826" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="827">
@@ -6147,16 +6091,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="429" priority="828" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="828" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="829" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="829" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="830" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="831" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="831" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="832">
@@ -6201,12 +6145,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="425" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="232" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="424" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="233" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="234">
@@ -6223,16 +6167,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="423" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="235" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="236" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="237" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="238" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="239">
@@ -6277,12 +6221,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="419" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="231" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="418" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="244" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="245">
@@ -6299,16 +6243,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="417" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="246" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="247" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="248" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="249" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="250">
@@ -6353,12 +6297,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="413" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="144" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="412" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="146">
@@ -6375,16 +6319,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="411" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="147" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="148" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="149" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="150" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="151">
@@ -6429,12 +6373,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="407" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="406" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -6451,16 +6395,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="405" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -6505,12 +6449,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="401" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="400" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -6527,16 +6471,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="399" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -6581,12 +6525,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="395" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="394" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -6603,16 +6547,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="393" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -6657,12 +6601,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="389" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="388" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -6679,16 +6623,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="387" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -6733,12 +6677,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="383" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="382" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -6755,16 +6699,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="381" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6809,12 +6753,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="377" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="376" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -6831,16 +6775,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="375" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -7059,24 +7003,24 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.36328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
@@ -7092,7 +7036,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
@@ -7108,7 +7052,7 @@
       <c r="K2" s="65"/>
       <c r="L2" s="66"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -7146,7 +7090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7180,7 +7124,7 @@
       </c>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -7212,7 +7156,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -7244,7 +7188,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -7278,7 +7222,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -7308,7 +7252,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -7338,7 +7282,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -7368,7 +7312,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -7400,7 +7344,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -7440,7 +7384,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="370" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -7457,16 +7401,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1048576">
-    <cfRule type="cellIs" dxfId="369" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -7525,16 +7469,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="365" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -7579,16 +7523,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="361" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -7633,7 +7577,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="357" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -7650,16 +7594,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="356" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -7704,12 +7648,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="352" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="351" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -7726,16 +7670,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="350" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -7780,12 +7724,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="346" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="345" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="111">
@@ -7802,16 +7746,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="344" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="112" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="113" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="114" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="115" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -7856,12 +7800,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="340" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="339" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -7878,16 +7822,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="338" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -7932,12 +7876,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="334" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="333" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -7954,16 +7898,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="332" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -8008,12 +7952,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="328" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="327" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -8030,16 +7974,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="326" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -8084,12 +8028,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="322" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="321" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -8106,16 +8050,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="320" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -8160,12 +8104,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="316" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="315" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">
@@ -8182,16 +8126,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="314" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="28" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="29" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="30" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="31" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -8236,12 +8180,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="310" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="309" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -8258,16 +8202,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="308" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -8312,12 +8256,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="304" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="303" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -8334,16 +8278,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="302" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -8562,24 +8506,24 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.36328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
@@ -8595,7 +8539,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
@@ -8611,7 +8555,7 @@
       <c r="K2" s="65"/>
       <c r="L2" s="66"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -8649,7 +8593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -8681,7 +8625,7 @@
       <c r="K4" s="43"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="11" t="s">
         <v>48</v>
@@ -8711,7 +8655,7 @@
       <c r="K5" s="43"/>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -8741,7 +8685,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -8771,7 +8715,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="87.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="87.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="11" t="s">
         <v>48</v>
@@ -8801,7 +8745,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="53"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -8833,7 +8777,7 @@
       <c r="K9" s="16"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -8873,7 +8817,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="297" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -8890,16 +8834,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I1048576">
-    <cfRule type="cellIs" dxfId="296" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -8958,16 +8902,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="292" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -9012,16 +8956,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="288" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -9066,7 +9010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="284" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -9083,16 +9027,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="283" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -9137,12 +9081,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="279" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="278" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -9159,16 +9103,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="277" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -9213,12 +9157,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="273" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="272" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="87">
@@ -9235,16 +9179,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="271" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="88" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="89" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="90" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="91" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -9289,12 +9233,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="267" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="266" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -9311,16 +9255,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="265" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -9365,21 +9309,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="261" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="260" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="163" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="163" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="163" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="163" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="163">
@@ -9424,7 +9368,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="256" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -9441,16 +9385,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="255" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -9495,12 +9439,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="251" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="250" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -9517,16 +9461,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="249" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -9571,17 +9515,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="245" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="244" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="243" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -9598,16 +9542,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="242" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -9652,7 +9596,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="238" priority="1463" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="1463" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="1464">
@@ -9821,23 +9765,23 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.36328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.08984375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.08984375" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
@@ -9852,7 +9796,7 @@
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
@@ -9867,7 +9811,7 @@
       <c r="J2" s="65"/>
       <c r="K2" s="66"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
@@ -9902,7 +9846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -9933,7 +9877,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -9960,7 +9904,7 @@
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -9991,7 +9935,7 @@
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -10020,7 +9964,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -10049,7 +9993,7 @@
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
     </row>
-    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -10075,7 +10019,7 @@
       <c r="J9" s="60"/>
       <c r="K9" s="61"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -10106,7 +10050,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -10135,7 +10079,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="53"/>
     </row>
-    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -10166,7 +10110,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -10197,7 +10141,7 @@
       <c r="J13" s="22"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" s="41" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="132" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -10236,7 +10180,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H15:H1048576">
-    <cfRule type="cellIs" dxfId="236" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="265" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="266">
@@ -10253,16 +10197,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H1048576">
-    <cfRule type="cellIs" dxfId="235" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="267" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="268" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="269" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="270" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="271">
@@ -10321,16 +10265,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="231" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="277" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="278" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="279" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="280" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="281">
@@ -10375,16 +10319,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="227" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="286" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="287" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="288" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="289" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="290">
@@ -10429,7 +10373,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="223" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="134" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="135">
@@ -10446,16 +10390,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="222" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="136" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="137" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="138" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="139" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="140">
@@ -10500,12 +10444,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="218" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="122" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="217" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="123" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="124">
@@ -10522,16 +10466,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="216" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="125" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="126" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="127" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="128" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="129">
@@ -10576,12 +10520,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="212" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="211" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="111" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="112">
@@ -10598,16 +10542,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="210" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="113" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="114" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="115" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="116" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="117">
@@ -10652,12 +10596,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="206" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="205" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -10674,16 +10618,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="204" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -10728,12 +10672,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="200" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="199" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="88">
@@ -10750,16 +10694,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="198" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="89" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="90" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="91" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="92" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="93">
@@ -10804,17 +10748,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="194" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="193" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="73" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="192" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="75">
@@ -10831,16 +10775,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="191" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="76" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="77" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="78" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="79" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -10885,7 +10829,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="187" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="146">
@@ -10902,16 +10846,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="186" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="147" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="148" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="149" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="150" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="151">
@@ -10956,16 +10900,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="182" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -11010,12 +10954,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="178" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="177" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -11032,16 +10976,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="176" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="28" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="29" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="30" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="31" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -11086,12 +11030,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="172" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="171" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">
@@ -11108,12 +11052,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="170" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="169" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -11130,16 +11074,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="168" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -11184,12 +11128,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="164" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="163" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -11206,16 +11150,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="162" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -11445,23 +11389,23 @@
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.36328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.08984375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.08984375" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
@@ -11476,7 +11420,7 @@
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
@@ -11491,7 +11435,7 @@
       <c r="J2" s="65"/>
       <c r="K2" s="66"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
@@ -11526,7 +11470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="150.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="150.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -11557,7 +11501,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -11586,7 +11530,7 @@
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -11617,7 +11561,7 @@
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -11648,7 +11592,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -11679,7 +11623,7 @@
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
     </row>
-    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -11710,7 +11654,7 @@
       <c r="J9" s="60"/>
       <c r="K9" s="61"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -11741,7 +11685,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -11772,7 +11716,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="53"/>
     </row>
-    <row r="12" spans="1:11" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -11803,7 +11747,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -11834,7 +11778,7 @@
       <c r="J13" s="22"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" s="41" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -11873,7 +11817,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H15:H1048576">
-    <cfRule type="cellIs" dxfId="157" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -11890,16 +11834,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H1048576">
-    <cfRule type="cellIs" dxfId="156" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -11958,16 +11902,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="152" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -12012,16 +11956,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="148" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -12066,7 +12010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="144" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="111">
@@ -12083,16 +12027,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="143" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="112" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="113" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="114" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="115" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -12137,12 +12081,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="139" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="138" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -12159,16 +12103,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="137" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -12213,12 +12157,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="133" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="132" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="88">
@@ -12235,16 +12179,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="131" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="89" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="90" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="91" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="92" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="93">
@@ -12289,12 +12233,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="127" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="126" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="76">
@@ -12311,16 +12255,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="125" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="77" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="78" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="79" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="80" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="81">
@@ -12365,12 +12309,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="121" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="120" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -12387,16 +12331,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="119" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -12441,17 +12385,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="115" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="114" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="113" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -12468,16 +12412,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="112" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -12522,7 +12466,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="108" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -12539,16 +12483,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="107" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -12593,16 +12537,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="103" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -12647,12 +12591,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="99" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="98" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -12669,16 +12613,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="97" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="28" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="29" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="30" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="31" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -12723,12 +12667,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="93" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="92" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">
@@ -12745,12 +12689,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="91" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="90" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -12767,16 +12711,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="89" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="16" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="17" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="18" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="19" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -12821,12 +12765,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="85" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="84" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -12843,16 +12787,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="4" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="5" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="6" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="7" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -13078,27 +13022,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.36328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.08984375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.08984375" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
@@ -13113,7 +13057,7 @@
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
@@ -13128,7 +13072,7 @@
       <c r="J2" s="65"/>
       <c r="K2" s="66"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
@@ -13163,7 +13107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="198" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="198" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -13192,7 +13136,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -13219,7 +13163,7 @@
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -13248,7 +13192,7 @@
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -13279,7 +13223,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -13299,7 +13243,7 @@
         <v>155</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>13</v>
@@ -13310,7 +13254,7 @@
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
     </row>
-    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -13324,13 +13268,13 @@
         <v>108</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>13</v>
@@ -13341,7 +13285,7 @@
       <c r="J9" s="60"/>
       <c r="K9" s="61"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -13358,10 +13302,10 @@
         <v>43245</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>13</v>
@@ -13372,7 +13316,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:11" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -13386,13 +13330,13 @@
         <v>11</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>13</v>
@@ -13403,7 +13347,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="30"/>
     </row>
-    <row r="12" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -13417,13 +13361,13 @@
         <v>27</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>13</v>
@@ -13434,7 +13378,7 @@
       <c r="J12" s="22"/>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="1:11" s="41" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" s="41" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -13454,7 +13398,7 @@
         <v>138</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>13</v>
@@ -13473,7 +13417,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H14:H1048576">
-    <cfRule type="cellIs" dxfId="78" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -13490,16 +13434,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H1048576">
-    <cfRule type="cellIs" dxfId="77" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="135" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="136" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="137" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="138" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="139">
@@ -13558,16 +13502,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="73" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="145" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="146" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="147" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="148" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="149">
@@ -13612,16 +13556,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="69" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="154" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="155" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="156" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="157" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -13666,7 +13610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="65" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="111">
@@ -13683,16 +13627,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="64" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="112" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="113" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="114" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="115" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -13737,12 +13681,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="60" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="59" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="100">
@@ -13759,16 +13703,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="58" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="101" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="102" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="103" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="104" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -13813,12 +13757,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="54" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="53" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="88">
@@ -13835,16 +13779,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="52" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="89" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="90" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="91" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="92" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="93">
@@ -13889,12 +13833,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="48" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="47" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="76">
@@ -13911,16 +13855,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="46" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="77" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="78" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="79" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="80" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="81">
@@ -13965,12 +13909,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="42" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="41" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="64">
@@ -13987,16 +13931,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="40" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="65" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="66" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="67" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="68" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -14041,17 +13985,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="36" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="35" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="34" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="51">
@@ -14068,16 +14012,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="33" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="52" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="53" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="54" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="55" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -14122,7 +14066,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="29" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -14139,16 +14083,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="28" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="123" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="124" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="125" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="126" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="127">
@@ -14193,16 +14137,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="24" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="40" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="41" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="42" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="43" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -14247,12 +14191,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="20" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="19" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="39">
@@ -14269,16 +14213,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="28" operator="equal">
       <formula>"cancel"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="29" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="30" operator="equal">
       <formula>"close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="31" operator="equal">
       <formula>"delay"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -14323,12 +14267,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{61E4E19A-B37C-43D3-B5E7-31E757D0D6AC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0416" sheetId="6" r:id="rId1"/>
@@ -756,16 +757,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、功能已确定，页面需求已经交给工业设计，等待工业设计进行设计。
-2、熟悉不同机型业务，修正框架，撰写功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">撰写功能，页面好了后再进行页面撰写
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文件传输功能整理重构------2018/5/15李贯涛
 解已发现的BUG，自测RC8610------2018/5/18李贯涛
 测试（小鱼、vidyo、维海德的产品，维海德的产品有限测试)------2018/5/18李贯涛/刘善翼
@@ -793,11 +784,21 @@
     <t>继续调试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1、关注工业设计的页面进展，周三完成评审
+2、完善剩余工作，完成自测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、功能和业务的撰写、完善。主要考虑机型和功能的可拓展性。
+2、页面UI，已经在周五和工业设计负责人开会详细沟通过了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1368,11 +1369,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="常规 2 2" xfId="1"/>
-    <cellStyle name="常规 2 3" xfId="3"/>
-    <cellStyle name="常规 3 2" xfId="2"/>
-    <cellStyle name="常规 3 2 2" xfId="4"/>
+    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 3 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="440">
     <dxf>
@@ -5167,7 +5168,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="439"/>
       <tableStyleElement type="headerRow" dxfId="438"/>
     </tableStyle>
@@ -5277,6 +5278,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5312,6 +5330,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5487,31 +5522,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.36328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.08984375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
@@ -5543,7 +5578,7 @@
       <c r="K2" s="65"/>
       <c r="L2" s="66"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -5581,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5615,7 +5650,7 @@
       <c r="K4" s="39"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5813,7 +5848,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -5874,7 +5909,7 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12"/>
+  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -6829,13 +6864,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6996,31 +7031,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.36328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.08984375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
@@ -7052,7 +7087,7 @@
       <c r="K2" s="65"/>
       <c r="L2" s="66"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -7156,7 +7191,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -7312,7 +7347,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -7377,7 +7412,7 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12"/>
+  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -8332,13 +8367,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8499,31 +8534,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.36328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.08984375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
@@ -8555,7 +8590,7 @@
       <c r="K2" s="65"/>
       <c r="L2" s="66"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -8715,7 +8750,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="87.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="87.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="11" t="s">
         <v>48</v>
@@ -8810,7 +8845,7 @@
       <c r="L10" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J10"/>
+  <autoFilter ref="J3:J10" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -9613,13 +9648,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9758,30 +9793,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.36328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.08984375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.08984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
@@ -9811,7 +9846,7 @@
       <c r="J2" s="65"/>
       <c r="K2" s="66"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
@@ -9993,7 +10028,7 @@
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
     </row>
-    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="38.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -10019,7 +10054,7 @@
       <c r="J9" s="60"/>
       <c r="K9" s="61"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -10050,7 +10085,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -10110,7 +10145,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="64.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -10141,7 +10176,7 @@
       <c r="J13" s="22"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" s="41" customFormat="1" ht="132" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="124.8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -10173,7 +10208,7 @@
       <c r="K14" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="I3:I11"/>
+  <autoFilter ref="I3:I11" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -11204,13 +11239,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11382,30 +11417,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.36328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.08984375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.08984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
@@ -11435,7 +11470,7 @@
       <c r="J2" s="65"/>
       <c r="K2" s="66"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
@@ -11623,7 +11658,7 @@
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
     </row>
-    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="38.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -11685,7 +11720,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -11747,7 +11782,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="64.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -11810,7 +11845,7 @@
       <c r="K14" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="I3:I11"/>
+  <autoFilter ref="I3:I11" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -12841,13 +12876,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13019,30 +13054,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="D9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.36328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.08984375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.08984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
@@ -13072,7 +13107,7 @@
       <c r="J2" s="65"/>
       <c r="K2" s="66"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
@@ -13243,7 +13278,7 @@
         <v>155</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>13</v>
@@ -13254,7 +13289,7 @@
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
     </row>
-    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="38.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -13271,10 +13306,10 @@
         <v>156</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>13</v>
@@ -13302,10 +13337,10 @@
         <v>43245</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>13</v>
@@ -13347,7 +13382,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="30"/>
     </row>
-    <row r="12" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="64.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -13364,10 +13399,10 @@
         <v>159</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>13</v>
@@ -13398,7 +13433,7 @@
         <v>138</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>13</v>
@@ -13410,7 +13445,7 @@
       <c r="K13" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="I3:I10"/>
+  <autoFilter ref="I3:I10" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -14365,13 +14400,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B13" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D13" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H13" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{61E4E19A-B37C-43D3-B5E7-31E757D0D6AC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{25328316-D6D6-4428-84FE-67413E9E790C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0416" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="170">
   <si>
     <t>组别</t>
   </si>
@@ -757,14 +757,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件传输功能整理重构------2018/5/15李贯涛
-解已发现的BUG，自测RC8610------2018/5/18李贯涛
-测试（小鱼、vidyo、维海德的产品，维海德的产品有限测试)------2018/5/18李贯涛/刘善翼
-多媒体控制模块UI调整、屏幕布局设置功能调整——2018/5/15/刘善翼
-医院调研------李贯涛/刘善翼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预计一周半时间完成客户提出的需求 1.目视检查图片用无压缩格式代替jpg格式 2.远程操作要能判断显示器是否有人使用（现在做的是增加free和busy按钮提示管理端是否有人使用）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -792,6 +784,24 @@
   <si>
     <t>1、功能和业务的撰写、完善。主要考虑机型和功能的可拓展性。
 2、页面UI，已经在周五和工业设计负责人开会详细沟通过了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/5/22自测完成提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到总部搭建RC8610环境——2018/5/24刘善翼
+完成自测，提测——20185/23刘善翼、李贯涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件传输功能整理重构------2018/5/15李贯涛---已完成
+解已发现的BUG，自测RC8610------2018/5/18李贯涛
+自测CheckList------刘善翼
+测试（小鱼、vidyo、维海德的产品，维海德的产品有限测试)------刘善翼
+调整代码解决VLC码流预览静音、延迟问题——刘善翼
+医院调研------李贯涛/刘善翼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1166,7 +1176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1352,6 +1362,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5529,56 +5542,56 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="67"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -5616,7 +5629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5650,7 +5663,7 @@
       <c r="K4" s="39"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5684,7 +5697,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5718,7 +5731,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -5752,7 +5765,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -5786,7 +5799,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -5816,7 +5829,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -5848,7 +5861,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -5878,7 +5891,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -7038,56 +7051,56 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="67"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -7125,7 +7138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7159,7 +7172,7 @@
       </c>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -7191,7 +7204,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -7223,7 +7236,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -7257,7 +7270,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -7287,7 +7300,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -7317,7 +7330,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -7347,7 +7360,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -7379,7 +7392,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -8541,56 +8554,56 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="67"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -8628,7 +8641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -8660,7 +8673,7 @@
       <c r="K4" s="43"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="11" t="s">
         <v>48</v>
@@ -8690,7 +8703,7 @@
       <c r="K5" s="43"/>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -8720,7 +8733,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -8750,7 +8763,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="87.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="87.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="11" t="s">
         <v>48</v>
@@ -8780,7 +8793,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="53"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -8812,7 +8825,7 @@
       <c r="K9" s="16"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -9800,53 +9813,53 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.21875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
@@ -9881,7 +9894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -9912,7 +9925,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -9939,7 +9952,7 @@
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -9970,7 +9983,7 @@
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -9999,7 +10012,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -10028,7 +10041,7 @@
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
     </row>
-    <row r="9" spans="1:11" ht="38.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -10054,7 +10067,7 @@
       <c r="J9" s="60"/>
       <c r="K9" s="61"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -10085,7 +10098,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -10114,7 +10127,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="53"/>
     </row>
-    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -10145,7 +10158,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" ht="64.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -10176,7 +10189,7 @@
       <c r="J13" s="22"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" s="41" customFormat="1" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="132" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -11424,53 +11437,53 @@
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.21875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
@@ -11505,7 +11518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="150.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="150.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -11536,7 +11549,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -11565,7 +11578,7 @@
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -11596,7 +11609,7 @@
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -11627,7 +11640,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -11658,7 +11671,7 @@
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
     </row>
-    <row r="9" spans="1:11" ht="38.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -11689,7 +11702,7 @@
       <c r="J9" s="60"/>
       <c r="K9" s="61"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -11720,7 +11733,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -11751,7 +11764,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="53"/>
     </row>
-    <row r="12" spans="1:11" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -11782,7 +11795,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" ht="64.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -11813,7 +11826,7 @@
       <c r="J13" s="22"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" s="41" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -13057,57 +13070,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.21875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
@@ -13142,7 +13155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="198" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="198" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -13171,7 +13184,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -13198,7 +13211,7 @@
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -13227,7 +13240,7 @@
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -13258,7 +13271,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -13278,7 +13291,7 @@
         <v>155</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>13</v>
@@ -13289,7 +13302,7 @@
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
     </row>
-    <row r="9" spans="1:11" ht="38.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -13306,10 +13319,10 @@
         <v>156</v>
       </c>
       <c r="F9" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>13</v>
@@ -13320,7 +13333,7 @@
       <c r="J9" s="60"/>
       <c r="K9" s="61"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -13337,10 +13350,10 @@
         <v>43245</v>
       </c>
       <c r="F10" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="36" t="s">
         <v>161</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>162</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>13</v>
@@ -13351,7 +13364,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:11" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -13382,7 +13395,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="30"/>
     </row>
-    <row r="12" spans="1:11" ht="64.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -13399,10 +13412,10 @@
         <v>159</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>13</v>
@@ -13413,7 +13426,7 @@
       <c r="J12" s="22"/>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="1:11" s="41" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="41" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -13427,13 +13440,13 @@
         <v>11</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>160</v>
+        <v>169</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>168</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>13</v>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{25328316-D6D6-4428-84FE-67413E9E790C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0416" sheetId="6" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="172">
   <si>
     <t>组别</t>
   </si>
@@ -671,42 +670,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018/5/8,开始自测；2018/5/10自测完成
-2018/5/8号 C620病理模式自测，2018/5/10自测，代码review完成
-3.04版本 5/11号提测
-导入理邦 新协议，5/9日前完成-徐海明，联调-5/11-张颖燕
-完成3.05版本（C620/C350护眼模式/3.04版本问题解决）音频、pdf导入代码 -徐海明，5/19日前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C620护眼模式曲线评审及导入 - 徐海明
-音频、pdf测试、西门子bug、S8610卡死问题 - 徐海明
-持续配合scaler平台导入3D - 徐海明
-完成理邦、迈瑞13.3联调 - 张颖燕
-ODM新协议现场工具二轮建议搜集及按建议更改、周二前调通蓝韵下曲线 - 张颖燕
-完成3.05版本（C620/C350护眼模式/3.04版本问题解决）音频、pdf导入代码 -徐海明，5/19日前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3DLUT结合方案二代码完成-5/23,数据验证 5/26
 方案优化完成-5/31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>S5810自动化生产以及巨烽和飞利浦的曲线自动化已测试完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/8 培训完成迈瑞程序下载机制，5/11联调完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/5/31 管理端、客户端框架搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI设计第一稿评审完成
+第二稿设计完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/5/23 UI设计稿评审
+2018/5/26 自测完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计一周半时间完成客户提出的需求 1.目视检查图片用无压缩格式代替jpg格式 2.远程操作要能判断显示器是否有人使用（现在做的是增加free和busy按钮提示管理端是否有人使用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/5/21-2018/5/22协助刘善翼李贯涛进行RC8610测试；客户需求变更，预计2018/5/25完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迈瑞程序下载代码已修改完成，正在调试自测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、关注工业设计的页面进展，周三完成评审
+2、完善剩余工作，完成自测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、功能和业务的撰写、完善。主要考虑机型和功能的可拓展性。
+2、页面UI，已经在周五和工业设计负责人开会详细沟通过了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/5/22自测完成提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到总部搭建RC8610环境——2018/5/24刘善翼
+完成自测，提测——20185/23刘善翼、李贯涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件传输功能整理重构------2018/5/15李贯涛---已完成
+解已发现的BUG，自测RC8610------2018/5/18李贯涛
+自测CheckList------刘善翼
+测试（小鱼、vidyo、维海德的产品，维海德的产品有限测试)------刘善翼
+调整代码解决VLC码流预览静音、延迟问题——刘善翼
+医院调研------李贯涛/刘善翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+5月26日蓝韵、理邦、迈瑞13.3、ODM新协议现场工具建议更改 - 张颖燕
+完成3.05版本（C350护眼模式/3.04版本问题解决）音频、pdf导入代码、配合scaler9U平台导入色温曲线 -徐海明，5/26日前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成C620护眼模式曲线评审及导入 - 徐海明
+完成S8610卡死问题定位 - 徐海明
+完成配合scaler9U平台导入3D - 徐海明
+完成ODM科美达导入新协议联调 - 张颖燕
+完成ODM新协议现场工具二轮建议搜集 - 张颖燕
+完成海明要求开发调试页细分功能代码 - 张颖燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频、pdf测试、西门子bug - 徐海明
+配合scaler9U平台导入色温曲线 - 徐海明
+完成蓝韵、理邦、迈瑞13.3联调 - 张颖燕
+按ODM新协议现场工具建议更改 - 张颖燕
+完成3.05版本（C350护眼模式/3.04版本问题解决）音频、pdf导入代码 -徐海明，5/26日前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>84 CGA 新协议修改提测-5/16
-84展厅更新-5/22
-CGA2S1.01测试-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5/18-?</t>
+      <t>84展厅更新-5/22</t>
     </r>
     <r>
       <rPr>
@@ -722,94 +785,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>协助孙伟定位分析，提测-5/16
-将更改后的CGA部署到展厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成问题定位，QC不做改动 - 徐海明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提测 - 张颖燕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S5810自动化生产以及巨烽和飞利浦的曲线自动化已测试完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/8 培训完成迈瑞程序下载机制，5/11联调完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/5/31 管理端、客户端框架搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI设计第一稿评审完成
-第二稿设计完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/5/23 UI设计稿评审
-2018/5/26 自测完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计一周半时间完成客户提出的需求 1.目视检查图片用无压缩格式代替jpg格式 2.远程操作要能判断显示器是否有人使用（现在做的是增加free和busy按钮提示管理端是否有人使用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/5/21-2018/5/22协助刘善翼李贯涛进行RC8610测试；客户需求变更，预计2018/5/25完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经提测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迈瑞程序下载代码已修改完成，正在调试自测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续调试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、关注工业设计的页面进展，周三完成评审
-2、完善剩余工作，完成自测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、功能和业务的撰写、完善。主要考虑机型和功能的可拓展性。
-2、页面UI，已经在周五和工业设计负责人开会详细沟通过了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/5/22自测完成提测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到总部搭建RC8610环境——2018/5/24刘善翼
-完成自测，提测——20185/23刘善翼、李贯涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件传输功能整理重构------2018/5/15李贯涛---已完成
-解已发现的BUG，自测RC8610------2018/5/18李贯涛
-自测CheckList------刘善翼
-测试（小鱼、vidyo、维海德的产品，维海德的产品有限测试)------刘善翼
-调整代码解决VLC码流预览静音、延迟问题——刘善翼
-医院调研------李贯涛/刘善翼</t>
+    <t>完成提测 - 徐海明 （图像识别模块、系统文本分辨率非100%）
+完成远程支援王坤云南镇雄中医院STM32驱动问题、支援刘正CGA失效问题 - 徐海明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将更改后的CGA部署到展厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成提测 - 张颖燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试建议二轮更改 - 张颖燕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,13 +898,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1382,11 +1372,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 3 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 2 2" xfId="1"/>
+    <cellStyle name="常规 2 3" xfId="3"/>
+    <cellStyle name="常规 3 2" xfId="2"/>
+    <cellStyle name="常规 3 2 2" xfId="4"/>
   </cellStyles>
   <dxfs count="440">
     <dxf>
@@ -5181,7 +5171,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="439"/>
       <tableStyleElement type="headerRow" dxfId="438"/>
     </tableStyle>
@@ -5258,7 +5248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5291,26 +5281,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5343,23 +5316,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5535,7 +5491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -5922,7 +5878,7 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="J3:J12"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -6877,13 +6833,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7044,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -7425,7 +7381,7 @@
       <c r="L12" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="J3:J12"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -8380,13 +8336,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8547,7 +8503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -8858,7 +8814,7 @@
       <c r="L10" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J10" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="J3:J10"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -9661,13 +9617,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9806,7 +9762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
@@ -10221,7 +10177,7 @@
       <c r="K14" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="I3:I11" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="I3:I11"/>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -11252,13 +11208,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11430,7 +11386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
@@ -11858,7 +11814,7 @@
       <c r="K14" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="I3:I11" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="I3:I11"/>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -12889,13 +12845,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D14">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B14">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13067,11 +13023,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -13169,11 +13125,13 @@
         <v>16</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="47"/>
+        <v>164</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>165</v>
+      </c>
       <c r="G4" s="47" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>13</v>
@@ -13198,7 +13156,7 @@
         <v>89</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
@@ -13225,11 +13183,13 @@
         <v>16</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" s="47"/>
+        <v>167</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>168</v>
+      </c>
       <c r="G6" s="47" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="H6" s="43" t="s">
         <v>13</v>
@@ -13253,14 +13213,14 @@
       <c r="D7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="46" t="s">
-        <v>100</v>
+      <c r="E7" s="46">
+        <v>43251</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="H7" s="43" t="s">
         <v>13</v>
@@ -13288,10 +13248,10 @@
         <v>104</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>13</v>
@@ -13316,13 +13276,13 @@
         <v>108</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>13</v>
@@ -13350,10 +13310,10 @@
         <v>43245</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>13</v>
@@ -13378,10 +13338,10 @@
         <v>11</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>147</v>
@@ -13409,13 +13369,13 @@
         <v>27</v>
       </c>
       <c r="E12" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>13</v>
@@ -13440,13 +13400,13 @@
         <v>11</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>13</v>
@@ -13458,7 +13418,7 @@
       <c r="K13" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="I3:I10" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="I3:I10"/>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -14413,13 +14373,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B13" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B10:B13">
       <formula1>"放射组,并轨组,内窥组,结构组,SE组,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D13" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8 D10:D13">
       <formula1>"已立项,模块设计任务,待立项,意向项目,技术开发,生产支持,缺陷分析,公共支持,产品升级,产品储备,定制项目,售后支持,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H13" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H13">
       <formula1>"ongoing,delay,close,cancel"</formula1>
     </dataValidation>
   </dataValidations>

--- a/应用软件周报.xlsx
+++ b/应用软件周报.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="173">
   <si>
     <t>组别</t>
   </si>
@@ -684,11 +684,6 @@
   </si>
   <si>
     <t>2018/5/31 管理端、客户端框架搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI设计第一稿评审完成
-第二稿设计完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -801,11 +796,21 @@
     <t>测试建议二轮更改 - 张颖燕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>客户端、管理端的框架开始搭建
+和结构组提出了需求，排在便携显示器之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">管理端、客户端框架搭建80%
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5248,7 +5253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5283,7 +5288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5498,24 +5503,24 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.86328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.1328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.3984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.265625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.1328125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.1328125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.265625" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>41</v>
       </c>
@@ -5531,7 +5536,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
@@ -5547,7 +5552,7 @@
       <c r="K2" s="66"/>
       <c r="L2" s="67"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="30.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -5585,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5619,7 +5624,7 @@
       <c r="K4" s="39"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5653,7 +5658,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5687,7 +5692,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -5721,7 +5726,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -5755,7 +5760,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -5785,7 +5790,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -5817,7 +5822,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -5847,7 +5852,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -7007,24 +7012,24 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.86328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.1328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.3984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.265625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.1328125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.1328125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.265625" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>41</v>
       </c>
@@ -7040,7 +7045,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
@@ -7056,7 +7061,7 @@
       <c r="K2" s="66"/>
       <c r="L2" s="67"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="30.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -7094,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7128,7 +7133,7 @@
       </c>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -7160,7 +7165,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -7192,7 +7197,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -7226,7 +7231,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -7256,7 +7261,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>48</v>
@@ -7286,7 +7291,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -7316,7 +7321,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -7348,7 +7353,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -8510,24 +8515,24 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.46484375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.1328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.3984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.265625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.1328125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.1328125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.265625" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>41</v>
       </c>
@@ -8543,7 +8548,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
@@ -8559,7 +8564,7 @@
       <c r="K2" s="66"/>
       <c r="L2" s="67"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="30.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -8597,7 +8602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -8629,7 +8634,7 @@
       <c r="K4" s="43"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="11" t="s">
         <v>48</v>
@@ -8659,7 +8664,7 @@
       <c r="K5" s="43"/>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -8689,7 +8694,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="41"/>
     </row>
-    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -8719,7 +8724,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="87.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="87.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="11" t="s">
         <v>48</v>
@@ -8749,7 +8754,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="53"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -8781,7 +8786,7 @@
       <c r="K9" s="16"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -9769,23 +9774,23 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.73046875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.265625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.3984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.265625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.1328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.1328125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.1328125" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>41</v>
       </c>
@@ -9800,7 +9805,7 @@
       <c r="J1" s="64"/>
       <c r="K1" s="64"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
@@ -9815,7 +9820,7 @@
       <c r="J2" s="66"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="30.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
@@ -9850,7 +9855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -9881,7 +9886,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -9908,7 +9913,7 @@
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -9939,7 +9944,7 @@
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -9968,7 +9973,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -9997,7 +10002,7 @@
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
     </row>
-    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -10023,7 +10028,7 @@
       <c r="J9" s="60"/>
       <c r="K9" s="61"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="47.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -10054,7 +10059,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -10083,7 +10088,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="53"/>
     </row>
-    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -10114,7 +10119,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -10145,7 +10150,7 @@
       <c r="J13" s="22"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" s="41" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="120" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -11393,23 +11398,23 @@
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.73046875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.265625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.3984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.265625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.1328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.1328125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.1328125" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>41</v>
       </c>
@@ -11424,7 +11429,7 @@
       <c r="J1" s="64"/>
       <c r="K1" s="64"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
@@ -11439,7 +11444,7 @@
       <c r="J2" s="66"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="30.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
@@ -11474,7 +11479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="150.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="150.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -11505,7 +11510,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -11534,7 +11539,7 @@
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -11565,7 +11570,7 @@
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -11596,7 +11601,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -11627,7 +11632,7 @@
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
     </row>
-    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -11658,7 +11663,7 @@
       <c r="J9" s="60"/>
       <c r="K9" s="61"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -11689,7 +11694,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="36.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -11720,7 +11725,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="53"/>
     </row>
-    <row r="12" spans="1:11" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -11751,7 +11756,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -11782,7 +11787,7 @@
       <c r="J13" s="22"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" s="41" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -13026,27 +13031,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.73046875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.265625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.3984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.265625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.1328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.1328125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.1328125" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>41</v>
       </c>
@@ -13061,7 +13066,7 @@
       <c r="J1" s="64"/>
       <c r="K1" s="64"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
@@ -13076,7 +13081,7 @@
       <c r="J2" s="66"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="30.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
@@ -13111,7 +13116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="198" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="198" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -13125,13 +13130,13 @@
         <v>16</v>
       </c>
       <c r="E4" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="G4" s="47" t="s">
         <v>165</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>166</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>13</v>
@@ -13142,7 +13147,7 @@
       <c r="J4" s="43"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -13169,7 +13174,7 @@
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -13183,13 +13188,13 @@
         <v>16</v>
       </c>
       <c r="E6" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="G6" s="47" t="s">
         <v>168</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>169</v>
       </c>
       <c r="H6" s="43" t="s">
         <v>13</v>
@@ -13200,7 +13205,7 @@
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -13217,10 +13222,10 @@
         <v>43251</v>
       </c>
       <c r="F7" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="47" t="s">
         <v>170</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>171</v>
       </c>
       <c r="H7" s="43" t="s">
         <v>13</v>
@@ -13231,7 +13236,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -13251,7 +13256,7 @@
         <v>149</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>13</v>
@@ -13262,7 +13267,7 @@
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
     </row>
-    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="38.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -13279,10 +13284,10 @@
         <v>150</v>
       </c>
       <c r="F9" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>13</v>
@@ -13293,7 +13298,7 @@
       <c r="J9" s="60"/>
       <c r="K9" s="61"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -13310,10 +13315,10 @@
         <v>43245<